--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5299524155101665</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.248522652555351</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2399874079711637</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16.96898100497737</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005731348615435898</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,125 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2237290542824297</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15.40824173353423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.434616935151297</v>
+      </c>
+      <c r="D3">
+        <v>0.9966075279489814</v>
+      </c>
+      <c r="E3">
+        <v>0.1958093820793181</v>
+      </c>
+      <c r="F3">
+        <v>13.59020901361174</v>
+      </c>
+      <c r="G3">
+        <v>0.0006241540451564946</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1817051180145199</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>12.33668470695184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.3869195410633495</v>
+      </c>
+      <c r="D4">
+        <v>0.8702795280816815</v>
+      </c>
+      <c r="E4">
+        <v>0.1737252909489975</v>
+      </c>
+      <c r="F4">
+        <v>11.87601414572464</v>
+      </c>
+      <c r="G4">
+        <v>0.0006521044157203298</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.1607156632103397</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10.77996502723175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.3691788738461526</v>
+      </c>
+      <c r="D5">
+        <v>0.8231799215559477</v>
+      </c>
+      <c r="E5">
+        <v>0.1655127149956677</v>
+      </c>
+      <c r="F5">
+        <v>11.23351020681469</v>
+      </c>
+      <c r="G5">
+        <v>0.0006630253298876238</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.1529117063074992</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>10.19675832551187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.3663166163691187</v>
+      </c>
+      <c r="D6">
+        <v>0.8155733919427632</v>
+      </c>
+      <c r="E6">
+        <v>0.1641877328318095</v>
+      </c>
+      <c r="F6">
+        <v>11.12957228891946</v>
+      </c>
+      <c r="G6">
+        <v>0.0006648173837537667</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.1516526874301789</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10.10242693024264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.3866743206273497</v>
+      </c>
+      <c r="D7">
+        <v>0.8696289989223942</v>
+      </c>
+      <c r="E7">
+        <v>0.1736117696607096</v>
+      </c>
+      <c r="F7">
+        <v>11.86715263596227</v>
+      </c>
+      <c r="G7">
+        <v>0.0006522532640903077</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.1606077864624993</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10.77192034126281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D8">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E8">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F8">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G8">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D9">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E9">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F9">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G9">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D10">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E10">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F10">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G10">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D11">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E11">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F11">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G11">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D12">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E12">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F12">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G12">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D13">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E13">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F13">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G13">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D14">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E14">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F14">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G14">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D15">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E15">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F15">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G15">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D16">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E16">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F16">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G16">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D17">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E17">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F17">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G17">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D18">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E18">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F18">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G18">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D19">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E19">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F19">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G19">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D20">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E20">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F20">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G20">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D21">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E21">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F21">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G21">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D22">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E22">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F22">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G22">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D23">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E23">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F23">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G23">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D24">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E24">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F24">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G24">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>14.25311272478962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.4939282578889106</v>
+      </c>
+      <c r="D25">
+        <v>1.15335977455544</v>
+      </c>
+      <c r="E25">
+        <v>0.2232862879339805</v>
+      </c>
+      <c r="F25">
+        <v>15.69887401739794</v>
+      </c>
+      <c r="G25">
+        <v>0.0005917598916600618</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.2078351043296394</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>14.25311272478962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5299524155101665</v>
+        <v>0.07881405106465422</v>
       </c>
       <c r="D2">
-        <v>1.248522652555351</v>
+        <v>0.0503024215713026</v>
       </c>
       <c r="E2">
-        <v>0.2399874079711637</v>
+        <v>0.04605837458228912</v>
       </c>
       <c r="F2">
-        <v>16.96898100497737</v>
+        <v>1.175158550476795</v>
       </c>
       <c r="G2">
-        <v>0.0005731348615435898</v>
+        <v>0.9116370935961271</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6522954056409844</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8396282808251669</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06449493823598473</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.580031707693081</v>
       </c>
       <c r="L2">
-        <v>0.2237290542824297</v>
+        <v>0.06247036063354194</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7269238416067552</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.40824173353423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.434616935151297</v>
+        <v>0.07146722308099385</v>
       </c>
       <c r="D3">
-        <v>0.9966075279489814</v>
+        <v>0.0448835729067838</v>
       </c>
       <c r="E3">
-        <v>0.1958093820793181</v>
+        <v>0.04471169692484089</v>
       </c>
       <c r="F3">
-        <v>13.59020901361174</v>
+        <v>1.155390033843936</v>
       </c>
       <c r="G3">
-        <v>0.0006241540451564946</v>
+        <v>0.8968082485208413</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6563209074068794</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8267133921895322</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06590350858352423</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.112235386007342</v>
       </c>
       <c r="L3">
-        <v>0.1817051180145199</v>
+        <v>0.06314196550235707</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.636647292461852</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.33668470695184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3869195410633495</v>
+        <v>0.06700368761036657</v>
       </c>
       <c r="D4">
-        <v>0.8702795280816815</v>
+        <v>0.04157263835620029</v>
       </c>
       <c r="E4">
-        <v>0.1737252909489975</v>
+        <v>0.04392827783220454</v>
       </c>
       <c r="F4">
-        <v>11.87601414572464</v>
+        <v>1.146108034613604</v>
       </c>
       <c r="G4">
-        <v>0.0006521044157203298</v>
+        <v>0.8903920164158592</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6603029923327455</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.82087783663507</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06686208280491712</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.826431998700514</v>
       </c>
       <c r="L4">
-        <v>0.1607156632103397</v>
+        <v>0.06362151294985097</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5815913493107203</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.77996502723175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3691788738461526</v>
+        <v>0.06519563438909159</v>
       </c>
       <c r="D5">
-        <v>0.8231799215559477</v>
+        <v>0.04022682730922611</v>
       </c>
       <c r="E5">
-        <v>0.1655127149956677</v>
+        <v>0.04361954072227547</v>
       </c>
       <c r="F5">
-        <v>11.23351020681469</v>
+        <v>1.143006994225189</v>
       </c>
       <c r="G5">
-        <v>0.0006630253298876238</v>
+        <v>0.8884162526753983</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6622886651643682</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.818999384793635</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06727564321879065</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.710256816519319</v>
       </c>
       <c r="L5">
-        <v>0.1529117063074992</v>
+        <v>0.06383345666437812</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5592363035927193</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.19675832551187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3663166163691187</v>
+        <v>0.06489603579424852</v>
       </c>
       <c r="D6">
-        <v>0.8155733919427632</v>
+        <v>0.04000354460941935</v>
       </c>
       <c r="E6">
-        <v>0.1641877328318095</v>
+        <v>0.04356889852962453</v>
       </c>
       <c r="F6">
-        <v>11.12957228891946</v>
+        <v>1.142532195791766</v>
       </c>
       <c r="G6">
-        <v>0.0006648173837537667</v>
+        <v>0.8881257220350847</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6626398318751399</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8187168838140479</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06734568204873526</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.690981801634507</v>
       </c>
       <c r="L6">
-        <v>0.1516526874301789</v>
+        <v>0.06386963741582363</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5555287653405259</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.10242693024264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3866743206273497</v>
+        <v>0.06697926088788364</v>
       </c>
       <c r="D7">
-        <v>0.8696289989223942</v>
+        <v>0.04155447526573397</v>
       </c>
       <c r="E7">
-        <v>0.1736117696607096</v>
+        <v>0.04392407205662785</v>
       </c>
       <c r="F7">
-        <v>11.86715263596227</v>
+        <v>1.146063500610737</v>
       </c>
       <c r="G7">
-        <v>0.0006522532640903077</v>
+        <v>0.890362831188483</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6603283238056576</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.820850514897252</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06686756817197548</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.824864121549695</v>
       </c>
       <c r="L7">
-        <v>0.1606077864624993</v>
+        <v>0.06362430486175619</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5812895516345904</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.77192034126281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4939282578889106</v>
+        <v>0.0762703551778543</v>
       </c>
       <c r="D8">
-        <v>1.15335977455544</v>
+        <v>0.04843020726170977</v>
       </c>
       <c r="E8">
-        <v>0.2232862879339805</v>
+        <v>0.04558476581469506</v>
       </c>
       <c r="F8">
-        <v>15.69887401739794</v>
+        <v>1.167726804782873</v>
       </c>
       <c r="G8">
-        <v>0.0005917598916600618</v>
+        <v>0.9059429386410187</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6533594315477842</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8347237703252119</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06496077377422615</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.418398075992116</v>
       </c>
       <c r="L8">
-        <v>0.2078351043296394</v>
+        <v>0.06268775815964034</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6957104264616873</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4939282578889106</v>
+        <v>0.0949192074303653</v>
       </c>
       <c r="D9">
-        <v>1.15335977455544</v>
+        <v>0.06207621270910835</v>
       </c>
       <c r="E9">
-        <v>0.2232862879339805</v>
+        <v>0.0492063223429966</v>
       </c>
       <c r="F9">
-        <v>15.69887401739794</v>
+        <v>1.234649149271334</v>
       </c>
       <c r="G9">
-        <v>0.0005917598916600618</v>
+        <v>0.9596334415200403</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6524954340782045</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.879856865699054</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06199546389861155</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.596930798871199</v>
       </c>
       <c r="L9">
-        <v>0.2078351043296394</v>
+        <v>0.06140204697888407</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9237243331971001</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4939282578889106</v>
+        <v>0.1089629867626627</v>
       </c>
       <c r="D10">
-        <v>1.15335977455544</v>
+        <v>0.07225374722984412</v>
       </c>
       <c r="E10">
-        <v>0.2232862879339805</v>
+        <v>0.05212026632047539</v>
       </c>
       <c r="F10">
-        <v>15.69887401739794</v>
+        <v>1.301400034423381</v>
       </c>
       <c r="G10">
-        <v>0.0005917598916600618</v>
+        <v>1.01590528152488</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.660897593214699</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.9259215753046561</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06033426515823948</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.47679710067257</v>
       </c>
       <c r="L10">
-        <v>0.2078351043296394</v>
+        <v>0.06082000467979043</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.094485655802849</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4939282578889106</v>
+        <v>0.1154462283179498</v>
       </c>
       <c r="D11">
-        <v>1.15335977455544</v>
+        <v>0.0769299457961452</v>
       </c>
       <c r="E11">
-        <v>0.2232862879339805</v>
+        <v>0.05350840162924797</v>
       </c>
       <c r="F11">
-        <v>15.69887401739794</v>
+        <v>1.336243655679667</v>
       </c>
       <c r="G11">
-        <v>0.0005917598916600618</v>
+        <v>1.045826854665933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6669854539023987</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9501653284378975</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05970208279607192</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.881371710367034</v>
       </c>
       <c r="L11">
-        <v>0.2078351043296394</v>
+        <v>0.06064048705535541</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.173126114815261</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4939282578889106</v>
+        <v>0.1179166942103649</v>
       </c>
       <c r="D12">
-        <v>1.15335977455544</v>
+        <v>0.07870858514552026</v>
       </c>
       <c r="E12">
-        <v>0.2232862879339805</v>
+        <v>0.05404373613910529</v>
       </c>
       <c r="F12">
-        <v>15.69887401739794</v>
+        <v>1.350142869312279</v>
       </c>
       <c r="G12">
-        <v>0.0005917598916600618</v>
+        <v>1.057840910463469</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6696446744825835</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.959863577623203</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05948148920444751</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.035309793287809</v>
       </c>
       <c r="L12">
-        <v>0.2078351043296394</v>
+        <v>0.06058537075677606</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.203066409900416</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4939282578889106</v>
+        <v>0.1173839197454498</v>
       </c>
       <c r="D13">
-        <v>1.15335977455544</v>
+        <v>0.07832515320238542</v>
       </c>
       <c r="E13">
-        <v>0.2232862879339805</v>
+        <v>0.05392800033857803</v>
       </c>
       <c r="F13">
-        <v>15.69887401739794</v>
+        <v>1.347117054377591</v>
       </c>
       <c r="G13">
-        <v>0.0005917598916600618</v>
+        <v>1.055222026901603</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6690557484546957</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9577511039304909</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05952814421896946</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.002121881997596</v>
       </c>
       <c r="L13">
-        <v>0.2078351043296394</v>
+        <v>0.06059665874640174</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.19661069082791</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4939282578889106</v>
+        <v>0.115649155457433</v>
       </c>
       <c r="D14">
-        <v>1.15335977455544</v>
+        <v>0.07707611062357955</v>
       </c>
       <c r="E14">
-        <v>0.2232862879339805</v>
+        <v>0.05355224584132401</v>
       </c>
       <c r="F14">
-        <v>15.69887401739794</v>
+        <v>1.337372660783174</v>
       </c>
       <c r="G14">
-        <v>0.0005917598916600618</v>
+        <v>1.046801186942517</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6671969667456068</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9509525627391398</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05968355133629899</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.894020880107632</v>
       </c>
       <c r="L14">
-        <v>0.2078351043296394</v>
+        <v>0.06063569115511669</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.175585958656001</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4939282578889106</v>
+        <v>0.1145886242711072</v>
       </c>
       <c r="D15">
-        <v>1.15335977455544</v>
+        <v>0.07631209773369108</v>
       </c>
       <c r="E15">
-        <v>0.2232862879339805</v>
+        <v>0.05332336696590723</v>
       </c>
       <c r="F15">
-        <v>15.69887401739794</v>
+        <v>1.331497610757197</v>
       </c>
       <c r="G15">
-        <v>0.0005917598916600618</v>
+        <v>1.041734112423441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6661053746018268</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9468570768174445</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05978122356414417</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.827905098603878</v>
       </c>
       <c r="L15">
-        <v>0.2078351043296394</v>
+        <v>0.06066129363808415</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.162729365577022</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4939282578889106</v>
+        <v>0.1085413456996491</v>
       </c>
       <c r="D16">
-        <v>1.15335977455544</v>
+        <v>0.0719491793454452</v>
       </c>
       <c r="E16">
-        <v>0.2232862879339805</v>
+        <v>0.05203086421433234</v>
       </c>
       <c r="F16">
-        <v>15.69887401739794</v>
+        <v>1.29921809730034</v>
       </c>
       <c r="G16">
-        <v>0.0005917598916600618</v>
+        <v>1.014041974748778</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6605476678729332</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.9244070959395998</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06037815173482386</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.450453551347096</v>
       </c>
       <c r="L16">
-        <v>0.2078351043296394</v>
+        <v>0.0608335025012785</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.089367537105517</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4939282578889106</v>
+        <v>0.1048570018646018</v>
       </c>
       <c r="D17">
-        <v>1.15335977455544</v>
+        <v>0.0692853622438605</v>
       </c>
       <c r="E17">
-        <v>0.2232862879339805</v>
+        <v>0.05125444580101579</v>
       </c>
       <c r="F17">
-        <v>15.69887401739794</v>
+        <v>1.280604092190373</v>
       </c>
       <c r="G17">
-        <v>0.0005917598916600618</v>
+        <v>0.9982031346048785</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6577376373206931</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.9115076076920516</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06077669069228975</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.220082720121468</v>
       </c>
       <c r="L17">
-        <v>0.2078351043296394</v>
+        <v>0.06096139573632087</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.04462390500332</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4939282578889106</v>
+        <v>0.1027466572535047</v>
       </c>
       <c r="D18">
-        <v>1.15335977455544</v>
+        <v>0.06775749273013076</v>
       </c>
       <c r="E18">
-        <v>0.2232862879339805</v>
+        <v>0.05081371535733403</v>
       </c>
       <c r="F18">
-        <v>15.69887401739794</v>
+        <v>1.270315370986395</v>
       </c>
       <c r="G18">
-        <v>0.0005917598916600618</v>
+        <v>0.9894959494902764</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6563328062558185</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.9043947920947417</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06101747692985171</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.087978622552896</v>
       </c>
       <c r="L18">
-        <v>0.2078351043296394</v>
+        <v>0.06104294207938921</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.018977448923152</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4939282578889106</v>
+        <v>0.1020335890954982</v>
       </c>
       <c r="D19">
-        <v>1.15335977455544</v>
+        <v>0.06724088437923825</v>
       </c>
       <c r="E19">
-        <v>0.2232862879339805</v>
+        <v>0.05066547572389624</v>
       </c>
       <c r="F19">
-        <v>15.69887401739794</v>
+        <v>1.266901745444272</v>
       </c>
       <c r="G19">
-        <v>0.0005917598916600618</v>
+        <v>0.9866152574833791</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6558926544348367</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.9020378829479441</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0611009578262447</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.04331571495743</v>
       </c>
       <c r="L19">
-        <v>0.2078351043296394</v>
+        <v>0.06107190628201664</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.010308609206277</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4939282578889106</v>
+        <v>0.1052482841243858</v>
       </c>
       <c r="D20">
-        <v>1.15335977455544</v>
+        <v>0.06956847811164835</v>
       </c>
       <c r="E20">
-        <v>0.2232862879339805</v>
+        <v>0.05133648720827289</v>
       </c>
       <c r="F20">
-        <v>15.69887401739794</v>
+        <v>1.282541947046738</v>
       </c>
       <c r="G20">
-        <v>0.0005917598916600618</v>
+        <v>0.9998470793317011</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6580146933792008</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.9128487345128562</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0607330621883122</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.244563995394685</v>
       </c>
       <c r="L20">
-        <v>0.2078351043296394</v>
+        <v>0.06094695061197442</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.04937758243863</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4939282578889106</v>
+        <v>0.1161582646112151</v>
       </c>
       <c r="D21">
-        <v>1.15335977455544</v>
+        <v>0.07744276112693171</v>
       </c>
       <c r="E21">
-        <v>0.2232862879339805</v>
+        <v>0.05366234565609496</v>
       </c>
       <c r="F21">
-        <v>15.69887401739794</v>
+        <v>1.340215187486223</v>
       </c>
       <c r="G21">
-        <v>0.0005917598916600618</v>
+        <v>1.049255522704627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6677330944612834</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.952935031703916</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05963738548876307</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.925751872525836</v>
       </c>
       <c r="L21">
-        <v>0.2078351043296394</v>
+        <v>0.0606238722059409</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.181756873885135</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4939282578889106</v>
+        <v>0.1233793069457647</v>
       </c>
       <c r="D22">
-        <v>1.15335977455544</v>
+        <v>0.08263554728230105</v>
       </c>
       <c r="E22">
-        <v>0.2232862879339805</v>
+        <v>0.05523920055841991</v>
       </c>
       <c r="F22">
-        <v>15.69887401739794</v>
+        <v>1.38204795651049</v>
       </c>
       <c r="G22">
-        <v>0.0005917598916600618</v>
+        <v>1.085563285910041</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6761623702706174</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9821750617731126</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05903143485059203</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.375289406796639</v>
       </c>
       <c r="L22">
-        <v>0.2078351043296394</v>
+        <v>0.06048801886159083</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.269224224012589</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4939282578889106</v>
+        <v>0.1195163602449014</v>
       </c>
       <c r="D23">
-        <v>1.15335977455544</v>
+        <v>0.07985937803781695</v>
       </c>
       <c r="E23">
-        <v>0.2232862879339805</v>
+        <v>0.05439216715208417</v>
       </c>
       <c r="F23">
-        <v>15.69887401739794</v>
+        <v>1.35932059820091</v>
       </c>
       <c r="G23">
-        <v>0.0005917598916600618</v>
+        <v>1.065795650719224</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6714633882339598</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9662748904128122</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05934439456413898</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.13492503974544</v>
       </c>
       <c r="L23">
-        <v>0.2078351043296394</v>
+        <v>0.06055342258575536</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.222446226033583</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4939282578889106</v>
+        <v>0.1050713611477931</v>
       </c>
       <c r="D24">
-        <v>1.15335977455544</v>
+        <v>0.06944047032055778</v>
       </c>
       <c r="E24">
-        <v>0.2232862879339805</v>
+        <v>0.05129937876254154</v>
       </c>
       <c r="F24">
-        <v>15.69887401739794</v>
+        <v>1.281664561859856</v>
       </c>
       <c r="G24">
-        <v>0.0005917598916600618</v>
+        <v>0.9991026144192432</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6578887821632122</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.9122414697836092</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06075275039138361</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.233494962863006</v>
       </c>
       <c r="L24">
-        <v>0.2078351043296394</v>
+        <v>0.06095345632084559</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.047228205935106</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4939282578889106</v>
+        <v>0.08982033816884893</v>
       </c>
       <c r="D25">
-        <v>1.15335977455544</v>
+        <v>0.05836206363669305</v>
       </c>
       <c r="E25">
-        <v>0.2232862879339805</v>
+        <v>0.04818450766208393</v>
       </c>
       <c r="F25">
-        <v>15.69887401739794</v>
+        <v>1.213664852514626</v>
       </c>
       <c r="G25">
-        <v>0.0005917598916600618</v>
+        <v>0.9423647002027593</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6512377038784933</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.8655338588308652</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06271032610150229</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.276043731663833</v>
       </c>
       <c r="L25">
-        <v>0.2078351043296394</v>
+        <v>0.06168826169211528</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8615511338309148</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.25311272478962</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07881405106465422</v>
+        <v>0.1233546200258786</v>
       </c>
       <c r="D2">
-        <v>0.0503024215713026</v>
+        <v>0.07308738474181808</v>
       </c>
       <c r="E2">
-        <v>0.04605837458228912</v>
+        <v>0.1174230245179544</v>
       </c>
       <c r="F2">
-        <v>1.175158550476795</v>
+        <v>2.628466502658767</v>
       </c>
       <c r="G2">
-        <v>0.9116370935961271</v>
+        <v>1.935490001332639</v>
       </c>
       <c r="H2">
-        <v>0.6522954056409844</v>
+        <v>1.675732621926272</v>
       </c>
       <c r="I2">
-        <v>0.8396282808251669</v>
+        <v>1.88147098425808</v>
       </c>
       <c r="J2">
-        <v>0.06449493823598473</v>
+        <v>0.1896188743661629</v>
       </c>
       <c r="K2">
-        <v>3.580031707693081</v>
+        <v>1.91794182479407</v>
       </c>
       <c r="L2">
-        <v>0.06247036063354194</v>
+        <v>0.1847726683820952</v>
       </c>
       <c r="M2">
-        <v>0.7269238416067552</v>
+        <v>0.5634616086912274</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07146722308099385</v>
+        <v>0.1216966938540196</v>
       </c>
       <c r="D3">
-        <v>0.0448835729067838</v>
+        <v>0.07157544687918005</v>
       </c>
       <c r="E3">
-        <v>0.04471169692484089</v>
+        <v>0.1175862777724745</v>
       </c>
       <c r="F3">
-        <v>1.155390033843936</v>
+        <v>2.646582355138428</v>
       </c>
       <c r="G3">
-        <v>0.8968082485208413</v>
+        <v>1.95137172918615</v>
       </c>
       <c r="H3">
-        <v>0.6563209074068794</v>
+        <v>1.690331141138813</v>
       </c>
       <c r="I3">
-        <v>0.8267133921895322</v>
+        <v>1.895018260411909</v>
       </c>
       <c r="J3">
-        <v>0.06590350858352423</v>
+        <v>0.1910742614136449</v>
       </c>
       <c r="K3">
-        <v>3.112235386007342</v>
+        <v>1.7831272642523</v>
       </c>
       <c r="L3">
-        <v>0.06314196550235707</v>
+        <v>0.1858199146600032</v>
       </c>
       <c r="M3">
-        <v>0.636647292461852</v>
+        <v>0.5389929666983235</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06700368761036657</v>
+        <v>0.1207101151223995</v>
       </c>
       <c r="D4">
-        <v>0.04157263835620029</v>
+        <v>0.07065570940591215</v>
       </c>
       <c r="E4">
-        <v>0.04392827783220454</v>
+        <v>0.1177191523100607</v>
       </c>
       <c r="F4">
-        <v>1.146108034613604</v>
+        <v>2.659192352163402</v>
       </c>
       <c r="G4">
-        <v>0.8903920164158592</v>
+        <v>1.962401979382591</v>
       </c>
       <c r="H4">
-        <v>0.6603029923327455</v>
+        <v>1.700135606189932</v>
       </c>
       <c r="I4">
-        <v>0.82087783663507</v>
+        <v>1.904416877475327</v>
       </c>
       <c r="J4">
-        <v>0.06686208280491712</v>
+        <v>0.1920321914351142</v>
       </c>
       <c r="K4">
-        <v>2.826431998700514</v>
+        <v>1.70070984224381</v>
       </c>
       <c r="L4">
-        <v>0.06362151294985097</v>
+        <v>0.1865139022580777</v>
       </c>
       <c r="M4">
-        <v>0.5815913493107203</v>
+        <v>0.5241218064352751</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06519563438909159</v>
+        <v>0.1203160170097988</v>
       </c>
       <c r="D5">
-        <v>0.04022682730922611</v>
+        <v>0.07028310570553487</v>
       </c>
       <c r="E5">
-        <v>0.04361954072227547</v>
+        <v>0.1177815265374829</v>
       </c>
       <c r="F5">
-        <v>1.143006994225189</v>
+        <v>2.664704628336111</v>
       </c>
       <c r="G5">
-        <v>0.8884162526753983</v>
+        <v>1.967217975753826</v>
       </c>
       <c r="H5">
-        <v>0.6622886651643682</v>
+        <v>1.704342384382215</v>
       </c>
       <c r="I5">
-        <v>0.818999384793635</v>
+        <v>1.908518381984841</v>
       </c>
       <c r="J5">
-        <v>0.06727564321879065</v>
+        <v>0.1924387432598458</v>
       </c>
       <c r="K5">
-        <v>2.710256816519319</v>
+        <v>1.667216053671865</v>
       </c>
       <c r="L5">
-        <v>0.06383345666437812</v>
+        <v>0.1868095464587221</v>
       </c>
       <c r="M5">
-        <v>0.5592363035927193</v>
+        <v>0.5181004295693725</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06489603579424852</v>
+        <v>0.1202510582928653</v>
       </c>
       <c r="D6">
-        <v>0.04000354460941935</v>
+        <v>0.07022136885501595</v>
       </c>
       <c r="E6">
-        <v>0.04356889852962453</v>
+        <v>0.1177923812004718</v>
       </c>
       <c r="F6">
-        <v>1.142532195791766</v>
+        <v>2.665642494378787</v>
       </c>
       <c r="G6">
-        <v>0.8881257220350847</v>
+        <v>1.96803704649642</v>
       </c>
       <c r="H6">
-        <v>0.6626398318751399</v>
+        <v>1.705053681273057</v>
       </c>
       <c r="I6">
-        <v>0.8187168838140479</v>
+        <v>1.909215824774385</v>
       </c>
       <c r="J6">
-        <v>0.06734568204873526</v>
+        <v>0.1925072290018424</v>
       </c>
       <c r="K6">
-        <v>2.690981801634507</v>
+        <v>1.661660039888517</v>
       </c>
       <c r="L6">
-        <v>0.06386963741582363</v>
+        <v>0.1868594139854487</v>
       </c>
       <c r="M6">
-        <v>0.5555287653405259</v>
+        <v>0.5171029347883334</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06697926088788364</v>
+        <v>0.1207047679616622</v>
       </c>
       <c r="D7">
-        <v>0.04155447526573397</v>
+        <v>0.07065067540018077</v>
       </c>
       <c r="E7">
-        <v>0.04392407205662785</v>
+        <v>0.1177199601738153</v>
       </c>
       <c r="F7">
-        <v>1.146063500610737</v>
+        <v>2.659265180316815</v>
       </c>
       <c r="G7">
-        <v>0.890362831188483</v>
+        <v>1.962465630206196</v>
       </c>
       <c r="H7">
-        <v>0.6603283238056576</v>
+        <v>1.700191484514136</v>
       </c>
       <c r="I7">
-        <v>0.820850514897252</v>
+        <v>1.904471092834925</v>
       </c>
       <c r="J7">
-        <v>0.06686756817197548</v>
+        <v>0.1920376087733064</v>
       </c>
       <c r="K7">
-        <v>2.824864121549695</v>
+        <v>1.700257758678561</v>
       </c>
       <c r="L7">
-        <v>0.06362430486175619</v>
+        <v>0.1865178374087115</v>
       </c>
       <c r="M7">
-        <v>0.5812895516345904</v>
+        <v>0.5240404427124048</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0762703551778543</v>
+        <v>0.1227764780463403</v>
       </c>
       <c r="D8">
-        <v>0.04843020726170977</v>
+        <v>0.07256430403436553</v>
       </c>
       <c r="E8">
-        <v>0.04558476581469506</v>
+        <v>0.1174725524421678</v>
       </c>
       <c r="F8">
-        <v>1.167726804782873</v>
+        <v>2.634404103238296</v>
       </c>
       <c r="G8">
-        <v>0.9059429386410187</v>
+        <v>1.940700311402949</v>
       </c>
       <c r="H8">
-        <v>0.6533594315477842</v>
+        <v>1.680591613505612</v>
       </c>
       <c r="I8">
-        <v>0.8347237703252119</v>
+        <v>1.885917687752915</v>
       </c>
       <c r="J8">
-        <v>0.06496077377422615</v>
+        <v>0.1901073517873346</v>
       </c>
       <c r="K8">
-        <v>3.418398075992116</v>
+        <v>1.871384131065213</v>
       </c>
       <c r="L8">
-        <v>0.06268775815964034</v>
+        <v>0.1851231916746716</v>
       </c>
       <c r="M8">
-        <v>0.6957104264616873</v>
+        <v>0.5549933298161136</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0949192074303653</v>
+        <v>0.1270864645828595</v>
       </c>
       <c r="D9">
-        <v>0.06207621270910835</v>
+        <v>0.07638385856568419</v>
       </c>
       <c r="E9">
-        <v>0.0492063223429966</v>
+        <v>0.1172455207832126</v>
       </c>
       <c r="F9">
-        <v>1.234649149271334</v>
+        <v>2.597461877960569</v>
       </c>
       <c r="G9">
-        <v>0.9596334415200403</v>
+        <v>1.90818808463267</v>
       </c>
       <c r="H9">
-        <v>0.6524954340782045</v>
+        <v>1.648832296745354</v>
       </c>
       <c r="I9">
-        <v>0.879856865699054</v>
+        <v>1.858118747337386</v>
       </c>
       <c r="J9">
-        <v>0.06199546389861155</v>
+        <v>0.1868317816121383</v>
       </c>
       <c r="K9">
-        <v>4.596930798871199</v>
+        <v>2.209759800880249</v>
       </c>
       <c r="L9">
-        <v>0.06140204697888407</v>
+        <v>0.1827918357039557</v>
       </c>
       <c r="M9">
-        <v>0.9237243331971001</v>
+        <v>0.6168916893543823</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1089629867626627</v>
+        <v>0.1304019288635345</v>
       </c>
       <c r="D10">
-        <v>0.07225374722984412</v>
+        <v>0.07922949568546045</v>
       </c>
       <c r="E10">
-        <v>0.05212026632047539</v>
+        <v>0.1172350739304591</v>
       </c>
       <c r="F10">
-        <v>1.301400034423381</v>
+        <v>2.577540505782707</v>
       </c>
       <c r="G10">
-        <v>1.01590528152488</v>
+        <v>1.890533656297478</v>
       </c>
       <c r="H10">
-        <v>0.660897593214699</v>
+        <v>1.629574073958878</v>
       </c>
       <c r="I10">
-        <v>0.9259215753046561</v>
+        <v>1.842944077109905</v>
       </c>
       <c r="J10">
-        <v>0.06033426515823948</v>
+        <v>0.1847349980985662</v>
       </c>
       <c r="K10">
-        <v>5.47679710067257</v>
+        <v>2.460026056748632</v>
       </c>
       <c r="L10">
-        <v>0.06082000467979043</v>
+        <v>0.1813237572961981</v>
       </c>
       <c r="M10">
-        <v>1.094485655802849</v>
+        <v>0.6630895905744154</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1154462283179498</v>
+        <v>0.1319421923508344</v>
       </c>
       <c r="D11">
-        <v>0.0769299457961452</v>
+        <v>0.08053234179728008</v>
       </c>
       <c r="E11">
-        <v>0.05350840162924797</v>
+        <v>0.1172640661775315</v>
       </c>
       <c r="F11">
-        <v>1.336243655679667</v>
+        <v>2.570050070415689</v>
       </c>
       <c r="G11">
-        <v>1.045826854665933</v>
+        <v>1.883862646612613</v>
       </c>
       <c r="H11">
-        <v>0.6669854539023987</v>
+        <v>1.621699193849565</v>
       </c>
       <c r="I11">
-        <v>0.9501653284378975</v>
+        <v>1.837184124079677</v>
       </c>
       <c r="J11">
-        <v>0.05970208279607192</v>
+        <v>0.1838481890821484</v>
       </c>
       <c r="K11">
-        <v>5.881371710367034</v>
+        <v>2.574232402674568</v>
       </c>
       <c r="L11">
-        <v>0.06064048705535541</v>
+        <v>0.1807087796288158</v>
       </c>
       <c r="M11">
-        <v>1.173126114815261</v>
+        <v>0.6842610552834714</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1179166942103649</v>
+        <v>0.1325300193726946</v>
       </c>
       <c r="D12">
-        <v>0.07870858514552026</v>
+        <v>0.08102686855951902</v>
       </c>
       <c r="E12">
-        <v>0.05404373613910529</v>
+        <v>0.1172798789924911</v>
       </c>
       <c r="F12">
-        <v>1.350142869312279</v>
+        <v>2.56744002946995</v>
       </c>
       <c r="G12">
-        <v>1.057840910463469</v>
+        <v>1.881532660998076</v>
       </c>
       <c r="H12">
-        <v>0.6696446744825835</v>
+        <v>1.618844668469208</v>
       </c>
       <c r="I12">
-        <v>0.959863577623203</v>
+        <v>1.8351676362633</v>
       </c>
       <c r="J12">
-        <v>0.05948148920444751</v>
+        <v>0.1835220024005828</v>
       </c>
       <c r="K12">
-        <v>6.035309793287809</v>
+        <v>2.617529852191694</v>
       </c>
       <c r="L12">
-        <v>0.06058537075677606</v>
+        <v>0.1804834844335055</v>
       </c>
       <c r="M12">
-        <v>1.203066409900416</v>
+        <v>0.6923002916504828</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1173839197454498</v>
+        <v>0.1324032180896637</v>
       </c>
       <c r="D13">
-        <v>0.07832515320238542</v>
+        <v>0.08092031199195304</v>
       </c>
       <c r="E13">
-        <v>0.05392800033857803</v>
+        <v>0.1172762587131384</v>
       </c>
       <c r="F13">
-        <v>1.347117054377591</v>
+        <v>2.567992072006831</v>
       </c>
       <c r="G13">
-        <v>1.055222026901603</v>
+        <v>1.88202573026247</v>
       </c>
       <c r="H13">
-        <v>0.6690557484546957</v>
+        <v>1.619453767710297</v>
       </c>
       <c r="I13">
-        <v>0.9577511039304909</v>
+        <v>1.83559459382559</v>
       </c>
       <c r="J13">
-        <v>0.05952814421896946</v>
+        <v>0.1835918244587447</v>
       </c>
       <c r="K13">
-        <v>6.002121881997596</v>
+        <v>2.608202774351923</v>
       </c>
       <c r="L13">
-        <v>0.06059665874640174</v>
+        <v>0.1805316687836438</v>
       </c>
       <c r="M13">
-        <v>1.19661069082791</v>
+        <v>0.6905679224322938</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.115649155457433</v>
+        <v>0.1319904620453229</v>
       </c>
       <c r="D14">
-        <v>0.07707611062357955</v>
+        <v>0.08057300360984243</v>
       </c>
       <c r="E14">
-        <v>0.05355224584132401</v>
+        <v>0.117265270329618</v>
       </c>
       <c r="F14">
-        <v>1.337372660783174</v>
+        <v>2.569830800668058</v>
       </c>
       <c r="G14">
-        <v>1.046801186942517</v>
+        <v>1.883667022074107</v>
       </c>
       <c r="H14">
-        <v>0.6671969667456068</v>
+        <v>1.621461793777158</v>
       </c>
       <c r="I14">
-        <v>0.9509525627391398</v>
+        <v>1.837014924185027</v>
       </c>
       <c r="J14">
-        <v>0.05968355133629899</v>
+        <v>0.183821160591485</v>
       </c>
       <c r="K14">
-        <v>5.894020880107632</v>
+        <v>2.577793517385487</v>
       </c>
       <c r="L14">
-        <v>0.06063569115511669</v>
+        <v>0.1806900925728918</v>
       </c>
       <c r="M14">
-        <v>1.175585958656001</v>
+        <v>0.6849220078813829</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1145886242711072</v>
+        <v>0.1317382299205576</v>
       </c>
       <c r="D15">
-        <v>0.07631209773369108</v>
+        <v>0.08036041821362261</v>
       </c>
       <c r="E15">
-        <v>0.05332336696590723</v>
+        <v>0.1172591686257256</v>
       </c>
       <c r="F15">
-        <v>1.331497610757197</v>
+        <v>2.570986573737542</v>
       </c>
       <c r="G15">
-        <v>1.041734112423441</v>
+        <v>1.884697927184334</v>
       </c>
       <c r="H15">
-        <v>0.6661053746018268</v>
+        <v>1.622708379070971</v>
       </c>
       <c r="I15">
-        <v>0.9468570768174445</v>
+        <v>1.837906373079797</v>
       </c>
       <c r="J15">
-        <v>0.05978122356414417</v>
+        <v>0.1839628892367422</v>
       </c>
       <c r="K15">
-        <v>5.827905098603878</v>
+        <v>2.559173430970304</v>
       </c>
       <c r="L15">
-        <v>0.06066129363808415</v>
+        <v>0.180788118796908</v>
       </c>
       <c r="M15">
-        <v>1.162729365577022</v>
+        <v>0.6814665852696464</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1085413456996491</v>
+        <v>0.1303019099362501</v>
       </c>
       <c r="D16">
-        <v>0.0719491793454452</v>
+        <v>0.07914451678415446</v>
       </c>
       <c r="E16">
-        <v>0.05203086421433234</v>
+        <v>0.1172338566736322</v>
       </c>
       <c r="F16">
-        <v>1.29921809730034</v>
+        <v>2.578061687008969</v>
       </c>
       <c r="G16">
-        <v>1.014041974748778</v>
+        <v>1.890997042267173</v>
       </c>
       <c r="H16">
-        <v>0.6605476678729332</v>
+        <v>1.630106552572713</v>
       </c>
       <c r="I16">
-        <v>0.9244070959395998</v>
+        <v>1.843343531565665</v>
       </c>
       <c r="J16">
-        <v>0.06037815173482386</v>
+        <v>0.1847943010804869</v>
       </c>
       <c r="K16">
-        <v>5.450453551347096</v>
+        <v>2.452569486421339</v>
       </c>
       <c r="L16">
-        <v>0.0608335025012785</v>
+        <v>0.1813650096831836</v>
       </c>
       <c r="M16">
-        <v>1.089367537105517</v>
+        <v>0.661709091374604</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1048570018646018</v>
+        <v>0.129428948734045</v>
       </c>
       <c r="D17">
-        <v>0.0692853622438605</v>
+        <v>0.07840071547352778</v>
       </c>
       <c r="E17">
-        <v>0.05125444580101579</v>
+        <v>0.1172269582962109</v>
       </c>
       <c r="F17">
-        <v>1.280604092190373</v>
+        <v>2.582804915389943</v>
       </c>
       <c r="G17">
-        <v>0.9982031346048785</v>
+        <v>1.895210122912701</v>
       </c>
       <c r="H17">
-        <v>0.6577376373206931</v>
+        <v>1.63487206609615</v>
       </c>
       <c r="I17">
-        <v>0.9115076076920516</v>
+        <v>1.846972041075183</v>
       </c>
       <c r="J17">
-        <v>0.06077669069228975</v>
+        <v>0.1853215057506468</v>
       </c>
       <c r="K17">
-        <v>5.220082720121468</v>
+        <v>2.387262187453302</v>
       </c>
       <c r="L17">
-        <v>0.06096139573632087</v>
+        <v>0.1817324394044348</v>
       </c>
       <c r="M17">
-        <v>1.04462390500332</v>
+        <v>0.6496281691038206</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1027466572535047</v>
+        <v>0.1289298631494233</v>
       </c>
       <c r="D18">
-        <v>0.06775749273013076</v>
+        <v>0.07797368869545096</v>
       </c>
       <c r="E18">
-        <v>0.05081371535733403</v>
+        <v>0.1172261678174547</v>
       </c>
       <c r="F18">
-        <v>1.270315370986395</v>
+        <v>2.58568102593479</v>
       </c>
       <c r="G18">
-        <v>0.9894959494902764</v>
+        <v>1.897761356296343</v>
       </c>
       <c r="H18">
-        <v>0.6563328062558185</v>
+        <v>1.637696428545624</v>
       </c>
       <c r="I18">
-        <v>0.9043947920947417</v>
+        <v>1.849166637409908</v>
       </c>
       <c r="J18">
-        <v>0.06101747692985171</v>
+        <v>0.1856310495380988</v>
       </c>
       <c r="K18">
-        <v>5.087978622552896</v>
+        <v>2.349733040187573</v>
       </c>
       <c r="L18">
-        <v>0.06104294207938921</v>
+        <v>0.1819487515963019</v>
       </c>
       <c r="M18">
-        <v>1.018977448923152</v>
+        <v>0.6426942276156495</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1020335890954982</v>
+        <v>0.128761401174728</v>
       </c>
       <c r="D19">
-        <v>0.06724088437923825</v>
+        <v>0.07782924115385015</v>
       </c>
       <c r="E19">
-        <v>0.05066547572389624</v>
+        <v>0.1172264464385577</v>
       </c>
       <c r="F19">
-        <v>1.266901745444272</v>
+        <v>2.586680223084699</v>
       </c>
       <c r="G19">
-        <v>0.9866152574833791</v>
+        <v>1.898647122564029</v>
       </c>
       <c r="H19">
-        <v>0.6558926544348367</v>
+        <v>1.638667022755683</v>
       </c>
       <c r="I19">
-        <v>0.9020378829479441</v>
+        <v>1.849928156552451</v>
       </c>
       <c r="J19">
-        <v>0.0611009578262447</v>
+        <v>0.1857369397330899</v>
       </c>
       <c r="K19">
-        <v>5.04331571495743</v>
+        <v>2.337032185652845</v>
       </c>
       <c r="L19">
-        <v>0.06107190628201664</v>
+        <v>0.1820228464139433</v>
       </c>
       <c r="M19">
-        <v>1.010308609206277</v>
+        <v>0.6403490469569491</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1052482841243858</v>
+        <v>0.1295215648569013</v>
       </c>
       <c r="D20">
-        <v>0.06956847811164835</v>
+        <v>0.07847981307769203</v>
       </c>
       <c r="E20">
-        <v>0.05133648720827289</v>
+        <v>0.1172273639366512</v>
       </c>
       <c r="F20">
-        <v>1.282541947046738</v>
+        <v>2.582284677513726</v>
       </c>
       <c r="G20">
-        <v>0.9998470793317011</v>
+        <v>1.894748383375315</v>
       </c>
       <c r="H20">
-        <v>0.6580146933792008</v>
+        <v>1.634356140006446</v>
       </c>
       <c r="I20">
-        <v>0.9128487345128562</v>
+        <v>1.846574644343626</v>
       </c>
       <c r="J20">
-        <v>0.0607330621883122</v>
+        <v>0.1852647309648248</v>
       </c>
       <c r="K20">
-        <v>5.244563995394685</v>
+        <v>2.394210766013998</v>
       </c>
       <c r="L20">
-        <v>0.06094695061197442</v>
+        <v>0.1816928109781202</v>
       </c>
       <c r="M20">
-        <v>1.04937758243863</v>
+        <v>0.6509126865144381</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1161582646112151</v>
+        <v>0.1321115750268405</v>
       </c>
       <c r="D21">
-        <v>0.07744276112693171</v>
+        <v>0.08067498508893323</v>
       </c>
       <c r="E21">
-        <v>0.05366234565609496</v>
+        <v>0.1172683668341552</v>
       </c>
       <c r="F21">
-        <v>1.340215187486223</v>
+        <v>2.569284573296841</v>
       </c>
       <c r="G21">
-        <v>1.049255522704627</v>
+        <v>1.883179605772042</v>
       </c>
       <c r="H21">
-        <v>0.6677330944612834</v>
+        <v>1.620868525792517</v>
       </c>
       <c r="I21">
-        <v>0.952935031703916</v>
+        <v>1.836593266862344</v>
       </c>
       <c r="J21">
-        <v>0.05963738548876307</v>
+        <v>0.1837535377694692</v>
       </c>
       <c r="K21">
-        <v>5.925751872525836</v>
+        <v>2.58672410958485</v>
       </c>
       <c r="L21">
-        <v>0.0606238722059409</v>
+        <v>0.1806433539903622</v>
       </c>
       <c r="M21">
-        <v>1.181756873885135</v>
+        <v>0.6865797537855372</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1233793069457647</v>
+        <v>0.1338308706836102</v>
       </c>
       <c r="D22">
-        <v>0.08263554728230105</v>
+        <v>0.08211644510433302</v>
       </c>
       <c r="E22">
-        <v>0.05523920055841991</v>
+        <v>0.1173233329231191</v>
       </c>
       <c r="F22">
-        <v>1.38204795651049</v>
+        <v>2.562108209577573</v>
       </c>
       <c r="G22">
-        <v>1.085563285910041</v>
+        <v>1.876762514769453</v>
       </c>
       <c r="H22">
-        <v>0.6761623702706174</v>
+        <v>1.612796948254513</v>
       </c>
       <c r="I22">
-        <v>0.9821750617731126</v>
+        <v>1.831029892826116</v>
       </c>
       <c r="J22">
-        <v>0.05903143485059203</v>
+        <v>0.1828220042852706</v>
       </c>
       <c r="K22">
-        <v>6.375289406796639</v>
+        <v>2.712833322139545</v>
       </c>
       <c r="L22">
-        <v>0.06048801886159083</v>
+        <v>0.1800016676120499</v>
       </c>
       <c r="M22">
-        <v>1.269224224012589</v>
+        <v>0.7100186844143792</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1195163602449014</v>
+        <v>0.1329108333813735</v>
       </c>
       <c r="D23">
-        <v>0.07985937803781695</v>
+        <v>0.08134650062642379</v>
       </c>
       <c r="E23">
-        <v>0.05439216715208417</v>
+        <v>0.1172914251012855</v>
       </c>
       <c r="F23">
-        <v>1.35932059820091</v>
+        <v>2.56581746530378</v>
       </c>
       <c r="G23">
-        <v>1.065795650719224</v>
+        <v>1.880082581885205</v>
       </c>
       <c r="H23">
-        <v>0.6714633882339598</v>
+        <v>1.617036834972495</v>
       </c>
       <c r="I23">
-        <v>0.9662748904128122</v>
+        <v>1.833911225052994</v>
       </c>
       <c r="J23">
-        <v>0.05934439456413898</v>
+        <v>0.1833140496214973</v>
       </c>
       <c r="K23">
-        <v>6.13492503974544</v>
+        <v>2.645500402920732</v>
       </c>
       <c r="L23">
-        <v>0.06055342258575536</v>
+        <v>0.180340109656747</v>
       </c>
       <c r="M23">
-        <v>1.222446226033583</v>
+        <v>0.6974972454319186</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1050713611477931</v>
+        <v>0.1294796844104269</v>
       </c>
       <c r="D24">
-        <v>0.06944047032055778</v>
+        <v>0.07844405119799092</v>
       </c>
       <c r="E24">
-        <v>0.05129937876254154</v>
+        <v>0.1172271706540506</v>
       </c>
       <c r="F24">
-        <v>1.281664561859856</v>
+        <v>2.582519412429633</v>
       </c>
       <c r="G24">
-        <v>0.9991026144192432</v>
+        <v>1.894956733785293</v>
       </c>
       <c r="H24">
-        <v>0.6578887821632122</v>
+        <v>1.634589126648621</v>
       </c>
       <c r="I24">
-        <v>0.9122414697836092</v>
+        <v>1.846753969390733</v>
       </c>
       <c r="J24">
-        <v>0.06075275039138361</v>
+        <v>0.1852903787630922</v>
       </c>
       <c r="K24">
-        <v>5.233494962863006</v>
+        <v>2.39106926092137</v>
       </c>
       <c r="L24">
-        <v>0.06095345632084559</v>
+        <v>0.1817107111893179</v>
       </c>
       <c r="M24">
-        <v>1.047228205935106</v>
+        <v>0.6503319202168711</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08982033816884893</v>
+        <v>0.1258942136934849</v>
       </c>
       <c r="D25">
-        <v>0.05836206363669305</v>
+        <v>0.07534354858618997</v>
       </c>
       <c r="E25">
-        <v>0.04818450766208393</v>
+        <v>0.1172794090979128</v>
       </c>
       <c r="F25">
-        <v>1.213664852514626</v>
+        <v>2.606189274891094</v>
       </c>
       <c r="G25">
-        <v>0.9423647002027593</v>
+        <v>1.915891412555041</v>
       </c>
       <c r="H25">
-        <v>0.6512377038784933</v>
+        <v>1.656708762562317</v>
       </c>
       <c r="I25">
-        <v>0.8655338588308652</v>
+        <v>1.864718444226128</v>
       </c>
       <c r="J25">
-        <v>0.06271032610150229</v>
+        <v>0.1876634437936033</v>
       </c>
       <c r="K25">
-        <v>4.276043731663833</v>
+        <v>2.117925375860807</v>
       </c>
       <c r="L25">
-        <v>0.06168826169211528</v>
+        <v>0.1833794562699893</v>
       </c>
       <c r="M25">
-        <v>0.8615511338309148</v>
+        <v>0.6000191773612755</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1233546200258786</v>
+        <v>0.07881405106486739</v>
       </c>
       <c r="D2">
-        <v>0.07308738474181808</v>
+        <v>0.05030242157128839</v>
       </c>
       <c r="E2">
-        <v>0.1174230245179544</v>
+        <v>0.04605837458227136</v>
       </c>
       <c r="F2">
-        <v>2.628466502658767</v>
+        <v>1.175158550476823</v>
       </c>
       <c r="G2">
-        <v>1.935490001332639</v>
+        <v>0.9116370935962408</v>
       </c>
       <c r="H2">
-        <v>1.675732621926272</v>
+        <v>0.6522954056410128</v>
       </c>
       <c r="I2">
-        <v>1.88147098425808</v>
+        <v>0.8396282808251812</v>
       </c>
       <c r="J2">
-        <v>0.1896188743661629</v>
+        <v>0.06449493823593677</v>
       </c>
       <c r="K2">
-        <v>1.91794182479407</v>
+        <v>3.580031707693138</v>
       </c>
       <c r="L2">
-        <v>0.1847726683820952</v>
+        <v>0.06247036063349753</v>
       </c>
       <c r="M2">
-        <v>0.5634616086912274</v>
+        <v>0.7269238416067694</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1216966938540196</v>
+        <v>0.07146722308061726</v>
       </c>
       <c r="D3">
-        <v>0.07157544687918005</v>
+        <v>0.04488357290683354</v>
       </c>
       <c r="E3">
-        <v>0.1175862777724745</v>
+        <v>0.04471169692487287</v>
       </c>
       <c r="F3">
-        <v>2.646582355138428</v>
+        <v>1.155390033843965</v>
       </c>
       <c r="G3">
-        <v>1.95137172918615</v>
+        <v>0.8968082485208697</v>
       </c>
       <c r="H3">
-        <v>1.690331141138813</v>
+        <v>0.6563209074068936</v>
       </c>
       <c r="I3">
-        <v>1.895018260411909</v>
+        <v>0.8267133921895464</v>
       </c>
       <c r="J3">
-        <v>0.1910742614136449</v>
+        <v>0.0659035085835793</v>
       </c>
       <c r="K3">
-        <v>1.7831272642523</v>
+        <v>3.112235386007399</v>
       </c>
       <c r="L3">
-        <v>0.1858199146600032</v>
+        <v>0.0631419655023393</v>
       </c>
       <c r="M3">
-        <v>0.5389929666983235</v>
+        <v>0.6366472924618307</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1207101151223995</v>
+        <v>0.06700368761025288</v>
       </c>
       <c r="D4">
-        <v>0.07065570940591215</v>
+        <v>0.04157263835614344</v>
       </c>
       <c r="E4">
-        <v>0.1177191523100607</v>
+        <v>0.04392827783220632</v>
       </c>
       <c r="F4">
-        <v>2.659192352163402</v>
+        <v>1.146108034613633</v>
       </c>
       <c r="G4">
-        <v>1.962401979382591</v>
+        <v>0.890392016415916</v>
       </c>
       <c r="H4">
-        <v>1.700135606189932</v>
+        <v>0.6603029923328876</v>
       </c>
       <c r="I4">
-        <v>1.904416877475327</v>
+        <v>0.8208778366350842</v>
       </c>
       <c r="J4">
-        <v>0.1920321914351142</v>
+        <v>0.06686208280496508</v>
       </c>
       <c r="K4">
-        <v>1.70070984224381</v>
+        <v>2.826431998700457</v>
       </c>
       <c r="L4">
-        <v>0.1865139022580777</v>
+        <v>0.06362151294978169</v>
       </c>
       <c r="M4">
-        <v>0.5241218064352751</v>
+        <v>0.5815913493107061</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1203160170097988</v>
+        <v>0.06519563438918397</v>
       </c>
       <c r="D5">
-        <v>0.07028310570553487</v>
+        <v>0.04022682730903426</v>
       </c>
       <c r="E5">
-        <v>0.1177815265374829</v>
+        <v>0.04361954072227725</v>
       </c>
       <c r="F5">
-        <v>2.664704628336111</v>
+        <v>1.143006994225196</v>
       </c>
       <c r="G5">
-        <v>1.967217975753826</v>
+        <v>0.8884162526754267</v>
       </c>
       <c r="H5">
-        <v>1.704342384382215</v>
+        <v>0.6622886651643398</v>
       </c>
       <c r="I5">
-        <v>1.908518381984841</v>
+        <v>0.8189993847936279</v>
       </c>
       <c r="J5">
-        <v>0.1924387432598458</v>
+        <v>0.06727564321883683</v>
       </c>
       <c r="K5">
-        <v>1.667216053671865</v>
+        <v>2.710256816519433</v>
       </c>
       <c r="L5">
-        <v>0.1868095464587221</v>
+        <v>0.06383345666439766</v>
       </c>
       <c r="M5">
-        <v>0.5181004295693725</v>
+        <v>0.5592363035927406</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1202510582928653</v>
+        <v>0.06489603579414194</v>
       </c>
       <c r="D6">
-        <v>0.07022136885501595</v>
+        <v>0.04000354460966804</v>
       </c>
       <c r="E6">
-        <v>0.1177923812004718</v>
+        <v>0.04356889852962631</v>
       </c>
       <c r="F6">
-        <v>2.665642494378787</v>
+        <v>1.14253219579178</v>
       </c>
       <c r="G6">
-        <v>1.96803704649642</v>
+        <v>0.8881257220350847</v>
       </c>
       <c r="H6">
-        <v>1.705053681273057</v>
+        <v>0.6626398318751541</v>
       </c>
       <c r="I6">
-        <v>1.909215824774385</v>
+        <v>0.8187168838140337</v>
       </c>
       <c r="J6">
-        <v>0.1925072290018424</v>
+        <v>0.06734568204867486</v>
       </c>
       <c r="K6">
-        <v>1.661660039888517</v>
+        <v>2.690981801634535</v>
       </c>
       <c r="L6">
-        <v>0.1868594139854487</v>
+        <v>0.06386963741575258</v>
       </c>
       <c r="M6">
-        <v>0.5171029347883334</v>
+        <v>0.5555287653405401</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1207047679616622</v>
+        <v>0.06697926088799733</v>
       </c>
       <c r="D7">
-        <v>0.07065067540018077</v>
+        <v>0.04155447526567713</v>
       </c>
       <c r="E7">
-        <v>0.1177199601738153</v>
+        <v>0.0439240720566243</v>
       </c>
       <c r="F7">
-        <v>2.659265180316815</v>
+        <v>1.14606350061073</v>
       </c>
       <c r="G7">
-        <v>1.962465630206196</v>
+        <v>0.8903628311884688</v>
       </c>
       <c r="H7">
-        <v>1.700191484514136</v>
+        <v>0.6603283238056576</v>
       </c>
       <c r="I7">
-        <v>1.904471092834925</v>
+        <v>0.820850514897252</v>
       </c>
       <c r="J7">
-        <v>0.1920376087733064</v>
+        <v>0.06686756817207851</v>
       </c>
       <c r="K7">
-        <v>1.700257758678561</v>
+        <v>2.824864121549751</v>
       </c>
       <c r="L7">
-        <v>0.1865178374087115</v>
+        <v>0.06362430486172066</v>
       </c>
       <c r="M7">
-        <v>0.5240404427124048</v>
+        <v>0.5812895516345691</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1227764780463403</v>
+        <v>0.07627035517796799</v>
       </c>
       <c r="D8">
-        <v>0.07256430403436553</v>
+        <v>0.04843020726176661</v>
       </c>
       <c r="E8">
-        <v>0.1174725524421678</v>
+        <v>0.04558476581469328</v>
       </c>
       <c r="F8">
-        <v>2.634404103238296</v>
+        <v>1.167726804782873</v>
       </c>
       <c r="G8">
-        <v>1.940700311402949</v>
+        <v>0.9059429386410187</v>
       </c>
       <c r="H8">
-        <v>1.680591613505612</v>
+        <v>0.6533594315477842</v>
       </c>
       <c r="I8">
-        <v>1.885917687752915</v>
+        <v>0.8347237703252119</v>
       </c>
       <c r="J8">
-        <v>0.1901073517873346</v>
+        <v>0.06496077377416576</v>
       </c>
       <c r="K8">
-        <v>1.871384131065213</v>
+        <v>3.418398075992116</v>
       </c>
       <c r="L8">
-        <v>0.1851231916746716</v>
+        <v>0.06268775815979311</v>
       </c>
       <c r="M8">
-        <v>0.5549933298161136</v>
+        <v>0.6957104264616802</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1270864645828595</v>
+        <v>0.0949192074303653</v>
       </c>
       <c r="D9">
-        <v>0.07638385856568419</v>
+        <v>0.06207621270910835</v>
       </c>
       <c r="E9">
-        <v>0.1172455207832126</v>
+        <v>0.04920632234297884</v>
       </c>
       <c r="F9">
-        <v>2.597461877960569</v>
+        <v>1.234649149271334</v>
       </c>
       <c r="G9">
-        <v>1.90818808463267</v>
+        <v>0.9596334415200545</v>
       </c>
       <c r="H9">
-        <v>1.648832296745354</v>
+        <v>0.6524954340782045</v>
       </c>
       <c r="I9">
-        <v>1.858118747337386</v>
+        <v>0.8798568656990753</v>
       </c>
       <c r="J9">
-        <v>0.1868317816121383</v>
+        <v>0.06199546389867194</v>
       </c>
       <c r="K9">
-        <v>2.209759800880249</v>
+        <v>4.596930798871085</v>
       </c>
       <c r="L9">
-        <v>0.1827918357039557</v>
+        <v>0.06140204697886986</v>
       </c>
       <c r="M9">
-        <v>0.6168916893543823</v>
+        <v>0.923724333197093</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1304019288635345</v>
+        <v>0.108962986762819</v>
       </c>
       <c r="D10">
-        <v>0.07922949568546045</v>
+        <v>0.07225374722973754</v>
       </c>
       <c r="E10">
-        <v>0.1172350739304591</v>
+        <v>0.05212026632046651</v>
       </c>
       <c r="F10">
-        <v>2.577540505782707</v>
+        <v>1.301400034423381</v>
       </c>
       <c r="G10">
-        <v>1.890533656297478</v>
+        <v>1.015905281524823</v>
       </c>
       <c r="H10">
-        <v>1.629574073958878</v>
+        <v>0.660897593214699</v>
       </c>
       <c r="I10">
-        <v>1.842944077109905</v>
+        <v>0.9259215753046774</v>
       </c>
       <c r="J10">
-        <v>0.1847349980985662</v>
+        <v>0.06033426515831053</v>
       </c>
       <c r="K10">
-        <v>2.460026056748632</v>
+        <v>5.476797100672627</v>
       </c>
       <c r="L10">
-        <v>0.1813237572961981</v>
+        <v>0.06082000467974424</v>
       </c>
       <c r="M10">
-        <v>0.6630895905744154</v>
+        <v>1.094485655802863</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1319421923508344</v>
+        <v>0.1154462283179782</v>
       </c>
       <c r="D11">
-        <v>0.08053234179728008</v>
+        <v>0.07692994579620205</v>
       </c>
       <c r="E11">
-        <v>0.1172640661775315</v>
+        <v>0.05350840162923554</v>
       </c>
       <c r="F11">
-        <v>2.570050070415689</v>
+        <v>1.336243655679667</v>
       </c>
       <c r="G11">
-        <v>1.883862646612613</v>
+        <v>1.045826854665961</v>
       </c>
       <c r="H11">
-        <v>1.621699193849565</v>
+        <v>0.6669854539023987</v>
       </c>
       <c r="I11">
-        <v>1.837184124079677</v>
+        <v>0.9501653284378833</v>
       </c>
       <c r="J11">
-        <v>0.1838481890821484</v>
+        <v>0.05970208279608968</v>
       </c>
       <c r="K11">
-        <v>2.574232402674568</v>
+        <v>5.881371710367148</v>
       </c>
       <c r="L11">
-        <v>0.1807087796288158</v>
+        <v>0.06064048705533409</v>
       </c>
       <c r="M11">
-        <v>0.6842610552834714</v>
+        <v>1.173126114815261</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1325300193726946</v>
+        <v>0.1179166942104644</v>
       </c>
       <c r="D12">
-        <v>0.08102686855951902</v>
+        <v>0.07870858514552026</v>
       </c>
       <c r="E12">
-        <v>0.1172798789924911</v>
+        <v>0.05404373613910884</v>
       </c>
       <c r="F12">
-        <v>2.56744002946995</v>
+        <v>1.350142869312293</v>
       </c>
       <c r="G12">
-        <v>1.881532660998076</v>
+        <v>1.057840910463426</v>
       </c>
       <c r="H12">
-        <v>1.618844668469208</v>
+        <v>0.6696446744825835</v>
       </c>
       <c r="I12">
-        <v>1.8351676362633</v>
+        <v>0.9598635776232101</v>
       </c>
       <c r="J12">
-        <v>0.1835220024005828</v>
+        <v>0.05948148920440488</v>
       </c>
       <c r="K12">
-        <v>2.617529852191694</v>
+        <v>6.035309793287695</v>
       </c>
       <c r="L12">
-        <v>0.1804834844335055</v>
+        <v>0.06058537075674764</v>
       </c>
       <c r="M12">
-        <v>0.6923002916504828</v>
+        <v>1.203066409900401</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1324032180896637</v>
+        <v>0.1173839197454498</v>
       </c>
       <c r="D13">
-        <v>0.08092031199195304</v>
+        <v>0.07832515320244937</v>
       </c>
       <c r="E13">
-        <v>0.1172762587131384</v>
+        <v>0.05392800033857448</v>
       </c>
       <c r="F13">
-        <v>2.567992072006831</v>
+        <v>1.347117054377605</v>
       </c>
       <c r="G13">
-        <v>1.88202573026247</v>
+        <v>1.055222026901532</v>
       </c>
       <c r="H13">
-        <v>1.619453767710297</v>
+        <v>0.6690557484545678</v>
       </c>
       <c r="I13">
-        <v>1.83559459382559</v>
+        <v>0.9577511039305051</v>
       </c>
       <c r="J13">
-        <v>0.1835918244587447</v>
+        <v>0.05952814421911867</v>
       </c>
       <c r="K13">
-        <v>2.608202774351923</v>
+        <v>6.002121881997596</v>
       </c>
       <c r="L13">
-        <v>0.1805316687836438</v>
+        <v>0.06059665874649056</v>
       </c>
       <c r="M13">
-        <v>0.6905679224322938</v>
+        <v>1.196610690827896</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1319904620453229</v>
+        <v>0.1156491554575467</v>
       </c>
       <c r="D14">
-        <v>0.08057300360984243</v>
+        <v>0.0770761106237714</v>
       </c>
       <c r="E14">
-        <v>0.117265270329618</v>
+        <v>0.05355224584132579</v>
       </c>
       <c r="F14">
-        <v>2.569830800668058</v>
+        <v>1.337372660783188</v>
       </c>
       <c r="G14">
-        <v>1.883667022074107</v>
+        <v>1.04680118694246</v>
       </c>
       <c r="H14">
-        <v>1.621461793777158</v>
+        <v>0.6671969667455926</v>
       </c>
       <c r="I14">
-        <v>1.837014924185027</v>
+        <v>0.950952562739154</v>
       </c>
       <c r="J14">
-        <v>0.183821160591485</v>
+        <v>0.05968355133629899</v>
       </c>
       <c r="K14">
-        <v>2.577793517385487</v>
+        <v>5.894020880107689</v>
       </c>
       <c r="L14">
-        <v>0.1806900925728918</v>
+        <v>0.06063569115513445</v>
       </c>
       <c r="M14">
-        <v>0.6849220078813829</v>
+        <v>1.175585958656029</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1317382299205576</v>
+        <v>0.1145886242712635</v>
       </c>
       <c r="D15">
-        <v>0.08036041821362261</v>
+        <v>0.07631209773358449</v>
       </c>
       <c r="E15">
-        <v>0.1172591686257256</v>
+        <v>0.05332336696591611</v>
       </c>
       <c r="F15">
-        <v>2.570986573737542</v>
+        <v>1.331497610757197</v>
       </c>
       <c r="G15">
-        <v>1.884697927184334</v>
+        <v>1.041734112423441</v>
       </c>
       <c r="H15">
-        <v>1.622708379070971</v>
+        <v>0.6661053746018126</v>
       </c>
       <c r="I15">
-        <v>1.837906373079797</v>
+        <v>0.9468570768174445</v>
       </c>
       <c r="J15">
-        <v>0.1839628892367422</v>
+        <v>0.05978122356414772</v>
       </c>
       <c r="K15">
-        <v>2.559173430970304</v>
+        <v>5.827905098603878</v>
       </c>
       <c r="L15">
-        <v>0.180788118796908</v>
+        <v>0.06066129363802375</v>
       </c>
       <c r="M15">
-        <v>0.6814665852696464</v>
+        <v>1.162729365577007</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1303019099362501</v>
+        <v>0.1085413456997628</v>
       </c>
       <c r="D16">
-        <v>0.07914451678415446</v>
+        <v>0.07194917934533862</v>
       </c>
       <c r="E16">
-        <v>0.1172338566736322</v>
+        <v>0.05203086421433234</v>
       </c>
       <c r="F16">
-        <v>2.578061687008969</v>
+        <v>1.299218097300326</v>
       </c>
       <c r="G16">
-        <v>1.890997042267173</v>
+        <v>1.014041974748807</v>
       </c>
       <c r="H16">
-        <v>1.630106552572713</v>
+        <v>0.6605476678729474</v>
       </c>
       <c r="I16">
-        <v>1.843343531565665</v>
+        <v>0.9244070959395998</v>
       </c>
       <c r="J16">
-        <v>0.1847943010804869</v>
+        <v>0.06037815173487715</v>
       </c>
       <c r="K16">
-        <v>2.452569486421339</v>
+        <v>5.450453551347152</v>
       </c>
       <c r="L16">
-        <v>0.1813650096831836</v>
+        <v>0.06083350250129982</v>
       </c>
       <c r="M16">
-        <v>0.661709091374604</v>
+        <v>1.08936753710551</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.129428948734045</v>
+        <v>0.1048570018647155</v>
       </c>
       <c r="D17">
-        <v>0.07840071547352778</v>
+        <v>0.0692853622438605</v>
       </c>
       <c r="E17">
-        <v>0.1172269582962109</v>
+        <v>0.05125444580103355</v>
       </c>
       <c r="F17">
-        <v>2.582804915389943</v>
+        <v>1.280604092190373</v>
       </c>
       <c r="G17">
-        <v>1.895210122912701</v>
+        <v>0.9982031346049496</v>
       </c>
       <c r="H17">
-        <v>1.63487206609615</v>
+        <v>0.6577376373206931</v>
       </c>
       <c r="I17">
-        <v>1.846972041075183</v>
+        <v>0.9115076076920374</v>
       </c>
       <c r="J17">
-        <v>0.1853215057506468</v>
+        <v>0.06077669069235014</v>
       </c>
       <c r="K17">
-        <v>2.387262187453302</v>
+        <v>5.220082720121468</v>
       </c>
       <c r="L17">
-        <v>0.1817324394044348</v>
+        <v>0.06096139573632797</v>
       </c>
       <c r="M17">
-        <v>0.6496281691038206</v>
+        <v>1.04462390500332</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1289298631494233</v>
+        <v>0.1027466572535047</v>
       </c>
       <c r="D18">
-        <v>0.07797368869545096</v>
+        <v>0.06775749273000997</v>
       </c>
       <c r="E18">
-        <v>0.1172261678174547</v>
+        <v>0.05081371535733403</v>
       </c>
       <c r="F18">
-        <v>2.58568102593479</v>
+        <v>1.270315370986367</v>
       </c>
       <c r="G18">
-        <v>1.897761356296343</v>
+        <v>0.9894959494902764</v>
       </c>
       <c r="H18">
-        <v>1.637696428545624</v>
+        <v>0.6563328062558185</v>
       </c>
       <c r="I18">
-        <v>1.849166637409908</v>
+        <v>0.9043947920947417</v>
       </c>
       <c r="J18">
-        <v>0.1856310495380988</v>
+        <v>0.06101747692978421</v>
       </c>
       <c r="K18">
-        <v>2.349733040187573</v>
+        <v>5.08797862255301</v>
       </c>
       <c r="L18">
-        <v>0.1819487515963019</v>
+        <v>0.06104294207939276</v>
       </c>
       <c r="M18">
-        <v>0.6426942276156495</v>
+        <v>1.018977448923152</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.128761401174728</v>
+        <v>0.102033589095484</v>
       </c>
       <c r="D19">
-        <v>0.07782924115385015</v>
+        <v>0.0672408843792951</v>
       </c>
       <c r="E19">
-        <v>0.1172264464385577</v>
+        <v>0.05066547572389446</v>
       </c>
       <c r="F19">
-        <v>2.586680223084699</v>
+        <v>1.266901745444272</v>
       </c>
       <c r="G19">
-        <v>1.898647122564029</v>
+        <v>0.9866152574833364</v>
       </c>
       <c r="H19">
-        <v>1.638667022755683</v>
+        <v>0.655892654434723</v>
       </c>
       <c r="I19">
-        <v>1.849928156552451</v>
+        <v>0.9020378829479654</v>
       </c>
       <c r="J19">
-        <v>0.1857369397330899</v>
+        <v>0.0611009578263122</v>
       </c>
       <c r="K19">
-        <v>2.337032185652845</v>
+        <v>5.043315714957373</v>
       </c>
       <c r="L19">
-        <v>0.1820228464139433</v>
+        <v>0.06107190628204506</v>
       </c>
       <c r="M19">
-        <v>0.6403490469569491</v>
+        <v>1.010308609206248</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1295215648569013</v>
+        <v>0.1052482841242863</v>
       </c>
       <c r="D20">
-        <v>0.07847981307769203</v>
+        <v>0.06956847811157729</v>
       </c>
       <c r="E20">
-        <v>0.1172273639366512</v>
+        <v>0.05133648720826045</v>
       </c>
       <c r="F20">
-        <v>2.582284677513726</v>
+        <v>1.282541947046781</v>
       </c>
       <c r="G20">
-        <v>1.894748383375315</v>
+        <v>0.9998470793317153</v>
       </c>
       <c r="H20">
-        <v>1.634356140006446</v>
+        <v>0.6580146933791156</v>
       </c>
       <c r="I20">
-        <v>1.846574644343626</v>
+        <v>0.9128487345128704</v>
       </c>
       <c r="J20">
-        <v>0.1852647309648248</v>
+        <v>0.06073306218830865</v>
       </c>
       <c r="K20">
-        <v>2.394210766013998</v>
+        <v>5.244563995394515</v>
       </c>
       <c r="L20">
-        <v>0.1816928109781202</v>
+        <v>0.0609469506120206</v>
       </c>
       <c r="M20">
-        <v>0.6509126865144381</v>
+        <v>1.049377582438638</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1321115750268405</v>
+        <v>0.1161582646109878</v>
       </c>
       <c r="D21">
-        <v>0.08067498508893323</v>
+        <v>0.07744276112698145</v>
       </c>
       <c r="E21">
-        <v>0.1172683668341552</v>
+        <v>0.05366234565610917</v>
       </c>
       <c r="F21">
-        <v>2.569284573296841</v>
+        <v>1.340215187486223</v>
       </c>
       <c r="G21">
-        <v>1.883179605772042</v>
+        <v>1.049255522704684</v>
       </c>
       <c r="H21">
-        <v>1.620868525792517</v>
+        <v>0.6677330944611697</v>
       </c>
       <c r="I21">
-        <v>1.836593266862344</v>
+        <v>0.952935031703916</v>
       </c>
       <c r="J21">
-        <v>0.1837535377694692</v>
+        <v>0.05963738548882702</v>
       </c>
       <c r="K21">
-        <v>2.58672410958485</v>
+        <v>5.92575187252578</v>
       </c>
       <c r="L21">
-        <v>0.1806433539903622</v>
+        <v>0.060623872205948</v>
       </c>
       <c r="M21">
-        <v>0.6865797537855372</v>
+        <v>1.181756873885135</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1338308706836102</v>
+        <v>0.1233793069459068</v>
       </c>
       <c r="D22">
-        <v>0.08211644510433302</v>
+        <v>0.0826355472819813</v>
       </c>
       <c r="E22">
-        <v>0.1173233329231191</v>
+        <v>0.05523920055844478</v>
       </c>
       <c r="F22">
-        <v>2.562108209577573</v>
+        <v>1.38204795651049</v>
       </c>
       <c r="G22">
-        <v>1.876762514769453</v>
+        <v>1.085563285910041</v>
       </c>
       <c r="H22">
-        <v>1.612796948254513</v>
+        <v>0.6761623702706032</v>
       </c>
       <c r="I22">
-        <v>1.831029892826116</v>
+        <v>0.9821750617730984</v>
       </c>
       <c r="J22">
-        <v>0.1828220042852706</v>
+        <v>0.05903143485058493</v>
       </c>
       <c r="K22">
-        <v>2.712833322139545</v>
+        <v>6.375289406796526</v>
       </c>
       <c r="L22">
-        <v>0.1800016676120499</v>
+        <v>0.06048801886160859</v>
       </c>
       <c r="M22">
-        <v>0.7100186844143792</v>
+        <v>1.269224224012589</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1329108333813735</v>
+        <v>0.1195163602449156</v>
       </c>
       <c r="D23">
-        <v>0.08134650062642379</v>
+        <v>0.07985937803790222</v>
       </c>
       <c r="E23">
-        <v>0.1172914251012855</v>
+        <v>0.05439216715208595</v>
       </c>
       <c r="F23">
-        <v>2.56581746530378</v>
+        <v>1.359320598200895</v>
       </c>
       <c r="G23">
-        <v>1.880082581885205</v>
+        <v>1.06579565071921</v>
       </c>
       <c r="H23">
-        <v>1.617036834972495</v>
+        <v>0.6714633882339598</v>
       </c>
       <c r="I23">
-        <v>1.833911225052994</v>
+        <v>0.9662748904127909</v>
       </c>
       <c r="J23">
-        <v>0.1833140496214973</v>
+        <v>0.05934439456414964</v>
       </c>
       <c r="K23">
-        <v>2.645500402920732</v>
+        <v>6.134925039745326</v>
       </c>
       <c r="L23">
-        <v>0.180340109656747</v>
+        <v>0.06055342258567009</v>
       </c>
       <c r="M23">
-        <v>0.6974972454319186</v>
+        <v>1.222446226033611</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1294796844104269</v>
+        <v>0.105071361147651</v>
       </c>
       <c r="D24">
-        <v>0.07844405119799092</v>
+        <v>0.06944047032053646</v>
       </c>
       <c r="E24">
-        <v>0.1172271706540506</v>
+        <v>0.05129937876254331</v>
       </c>
       <c r="F24">
-        <v>2.582519412429633</v>
+        <v>1.281664561859841</v>
       </c>
       <c r="G24">
-        <v>1.894956733785293</v>
+        <v>0.9991026144192432</v>
       </c>
       <c r="H24">
-        <v>1.634589126648621</v>
+        <v>0.6578887821632264</v>
       </c>
       <c r="I24">
-        <v>1.846753969390733</v>
+        <v>0.9122414697836163</v>
       </c>
       <c r="J24">
-        <v>0.1852903787630922</v>
+        <v>0.06075275039137296</v>
       </c>
       <c r="K24">
-        <v>2.39106926092137</v>
+        <v>5.233494962863006</v>
       </c>
       <c r="L24">
-        <v>0.1817107111893179</v>
+        <v>0.06095345632081717</v>
       </c>
       <c r="M24">
-        <v>0.6503319202168711</v>
+        <v>1.047228205935099</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1258942136934849</v>
+        <v>0.08982033816894841</v>
       </c>
       <c r="D25">
-        <v>0.07534354858618997</v>
+        <v>0.05836206363677121</v>
       </c>
       <c r="E25">
-        <v>0.1172794090979128</v>
+        <v>0.04818450766208571</v>
       </c>
       <c r="F25">
-        <v>2.606189274891094</v>
+        <v>1.213664852514626</v>
       </c>
       <c r="G25">
-        <v>1.915891412555041</v>
+        <v>0.9423647002028304</v>
       </c>
       <c r="H25">
-        <v>1.656708762562317</v>
+        <v>0.6512377038783654</v>
       </c>
       <c r="I25">
-        <v>1.864718444226128</v>
+        <v>0.8655338588308723</v>
       </c>
       <c r="J25">
-        <v>0.1876634437936033</v>
+        <v>0.06271032610161242</v>
       </c>
       <c r="K25">
-        <v>2.117925375860807</v>
+        <v>4.276043731663833</v>
       </c>
       <c r="L25">
-        <v>0.1833794562699893</v>
+        <v>0.06168826169212593</v>
       </c>
       <c r="M25">
-        <v>0.6000191773612755</v>
+        <v>0.8615511338309148</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07881405106486739</v>
+        <v>0.3183626537726525</v>
       </c>
       <c r="D2">
-        <v>0.05030242157128839</v>
+        <v>0.01288900530021664</v>
       </c>
       <c r="E2">
-        <v>0.04605837458227136</v>
+        <v>0.2045602703770228</v>
       </c>
       <c r="F2">
-        <v>1.175158550476823</v>
+        <v>1.125367544246274</v>
       </c>
       <c r="G2">
-        <v>0.9116370935962408</v>
+        <v>1.091089275150949</v>
       </c>
       <c r="H2">
-        <v>0.6522954056410128</v>
+        <v>0.007482153688630422</v>
       </c>
       <c r="I2">
-        <v>0.8396282808251812</v>
+        <v>0.01822634485985208</v>
       </c>
       <c r="J2">
-        <v>0.06449493823593677</v>
+        <v>0.6337099497305587</v>
       </c>
       <c r="K2">
-        <v>3.580031707693138</v>
+        <v>1.044501376700552</v>
       </c>
       <c r="L2">
-        <v>0.06247036063349753</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7269238416067694</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2619161011959221</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.590303215626818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07146722308061726</v>
+        <v>0.2942741269802411</v>
       </c>
       <c r="D3">
-        <v>0.04488357290683354</v>
+        <v>0.01187745907881244</v>
       </c>
       <c r="E3">
-        <v>0.04471169692487287</v>
+        <v>0.1855697559166245</v>
       </c>
       <c r="F3">
-        <v>1.155390033843965</v>
+        <v>1.000058898565129</v>
       </c>
       <c r="G3">
-        <v>0.8968082485208697</v>
+        <v>0.9651148042441804</v>
       </c>
       <c r="H3">
-        <v>0.6563209074068936</v>
+        <v>0.005001832812645435</v>
       </c>
       <c r="I3">
-        <v>0.8267133921895464</v>
+        <v>0.01381878356161748</v>
       </c>
       <c r="J3">
-        <v>0.0659035085835793</v>
+        <v>0.5763689446032316</v>
       </c>
       <c r="K3">
-        <v>3.112235386007399</v>
+        <v>0.9374871727510126</v>
       </c>
       <c r="L3">
-        <v>0.0631419655023393</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6366472924618307</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2347765003527797</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3.20293814382805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06700368761025288</v>
+        <v>0.2791973669831265</v>
       </c>
       <c r="D4">
-        <v>0.04157263835614344</v>
+        <v>0.01125247681079244</v>
       </c>
       <c r="E4">
-        <v>0.04392827783220632</v>
+        <v>0.1738298841184935</v>
       </c>
       <c r="F4">
-        <v>1.146108034613633</v>
+        <v>0.9233866052597222</v>
       </c>
       <c r="G4">
-        <v>0.890392016415916</v>
+        <v>0.8878946360722466</v>
       </c>
       <c r="H4">
-        <v>0.6603029923328876</v>
+        <v>0.003680680912468204</v>
       </c>
       <c r="I4">
-        <v>0.8208778366350842</v>
+        <v>0.01135473323122405</v>
       </c>
       <c r="J4">
-        <v>0.06686208280496508</v>
+        <v>0.5412914592922391</v>
       </c>
       <c r="K4">
-        <v>2.826431998700457</v>
+        <v>0.8717035441413543</v>
       </c>
       <c r="L4">
-        <v>0.06362151294978169</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5815913493107061</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2181293558732236</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.965628735533016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06519563438918397</v>
+        <v>0.2724388596571714</v>
       </c>
       <c r="D5">
-        <v>0.04022682730903426</v>
+        <v>0.01100754109838498</v>
       </c>
       <c r="E5">
-        <v>0.04361954072227725</v>
+        <v>0.1688865580219385</v>
       </c>
       <c r="F5">
-        <v>1.143006994225196</v>
+        <v>0.8914643847191428</v>
       </c>
       <c r="G5">
-        <v>0.8884162526754267</v>
+        <v>0.8556016294816544</v>
       </c>
       <c r="H5">
-        <v>0.6622886651643398</v>
+        <v>0.003185726830575053</v>
       </c>
       <c r="I5">
-        <v>0.8189993847936279</v>
+        <v>0.01044780513335342</v>
       </c>
       <c r="J5">
-        <v>0.06727564321883683</v>
+        <v>0.5266032494919699</v>
       </c>
       <c r="K5">
-        <v>2.710256816519433</v>
+        <v>0.8438523573125707</v>
       </c>
       <c r="L5">
-        <v>0.06383345666439766</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5592363035927406</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2114130240487881</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.866346565555091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06489603579414194</v>
+        <v>0.2706511173396251</v>
       </c>
       <c r="D6">
-        <v>0.04000354460966804</v>
+        <v>0.01098023591162089</v>
       </c>
       <c r="E6">
-        <v>0.04356889852962631</v>
+        <v>0.1678958895927956</v>
       </c>
       <c r="F6">
-        <v>1.14253219579178</v>
+        <v>0.885270219833231</v>
       </c>
       <c r="G6">
-        <v>0.8881257220350847</v>
+        <v>0.8492051223435624</v>
       </c>
       <c r="H6">
-        <v>0.6626398318751541</v>
+        <v>0.003101631445826314</v>
       </c>
       <c r="I6">
-        <v>0.8187168838140337</v>
+        <v>0.01035797973438868</v>
       </c>
       <c r="J6">
-        <v>0.06734568204867486</v>
+        <v>0.5236501806773219</v>
       </c>
       <c r="K6">
-        <v>2.690981801634535</v>
+        <v>0.8379813108833645</v>
       </c>
       <c r="L6">
-        <v>0.06386963741575258</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5555287653405401</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2103789679138472</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.846591677046689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06697926088799733</v>
+        <v>0.2772946796459763</v>
       </c>
       <c r="D7">
-        <v>0.04155447526567713</v>
+        <v>0.01128604784540599</v>
       </c>
       <c r="E7">
-        <v>0.0439240720566243</v>
+        <v>0.1733020802463514</v>
       </c>
       <c r="F7">
-        <v>1.14606350061073</v>
+        <v>0.9204997524709881</v>
       </c>
       <c r="G7">
-        <v>0.8903628311884688</v>
+        <v>0.8846223757321923</v>
       </c>
       <c r="H7">
-        <v>0.6603283238056576</v>
+        <v>0.003659946971701022</v>
       </c>
       <c r="I7">
-        <v>0.820850514897252</v>
+        <v>0.01148332119466655</v>
       </c>
       <c r="J7">
-        <v>0.06686756817207851</v>
+        <v>0.5396813900050574</v>
       </c>
       <c r="K7">
-        <v>2.824864121549751</v>
+        <v>0.8679185701705592</v>
       </c>
       <c r="L7">
-        <v>0.06362430486172066</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5812895516345691</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2182613402418667</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.9553198496032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07627035517796799</v>
+        <v>0.3076988310175892</v>
       </c>
       <c r="D8">
-        <v>0.04843020726176661</v>
+        <v>0.01259076287170124</v>
       </c>
       <c r="E8">
-        <v>0.04558476581469328</v>
+        <v>0.1974133489568182</v>
       </c>
       <c r="F8">
-        <v>1.167726804782873</v>
+        <v>1.078815446284025</v>
       </c>
       <c r="G8">
-        <v>0.9059429386410187</v>
+        <v>1.043827452016814</v>
       </c>
       <c r="H8">
-        <v>0.6533594315477842</v>
+        <v>0.006559398196255284</v>
       </c>
       <c r="I8">
-        <v>0.8347237703252119</v>
+        <v>0.01680793017376203</v>
       </c>
       <c r="J8">
-        <v>0.06496077377416576</v>
+        <v>0.6120252402154875</v>
       </c>
       <c r="K8">
-        <v>3.418398075992116</v>
+        <v>1.003061837725269</v>
       </c>
       <c r="L8">
-        <v>0.06268775815979311</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6957104264616802</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2528513455951042</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3.444625473562866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0949192074303653</v>
+        <v>0.3683839731747724</v>
       </c>
       <c r="D9">
-        <v>0.06207621270910835</v>
+        <v>0.0150591126973616</v>
       </c>
       <c r="E9">
-        <v>0.04920632234297884</v>
+        <v>0.244968058238257</v>
       </c>
       <c r="F9">
-        <v>1.234649149271334</v>
+        <v>1.3964515441956</v>
       </c>
       <c r="G9">
-        <v>0.9596334415200545</v>
+        <v>1.362753526315601</v>
       </c>
       <c r="H9">
-        <v>0.6524954340782045</v>
+        <v>0.01404489094576744</v>
       </c>
       <c r="I9">
-        <v>0.8798568656990753</v>
+        <v>0.02920905939322349</v>
       </c>
       <c r="J9">
-        <v>0.06199546389867194</v>
+        <v>0.7577301696953214</v>
       </c>
       <c r="K9">
-        <v>4.596930798871085</v>
+        <v>1.273999237668008</v>
       </c>
       <c r="L9">
-        <v>0.06140204697886986</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.923724333197093</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3205488747439347</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4.42636081924627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.108962986762819</v>
+        <v>0.4041383091526569</v>
       </c>
       <c r="D10">
-        <v>0.07225374722973754</v>
+        <v>0.01710108573822389</v>
       </c>
       <c r="E10">
-        <v>0.05212026632046651</v>
+        <v>0.27042560514775</v>
       </c>
       <c r="F10">
-        <v>1.301400034423381</v>
+        <v>1.618587444140076</v>
       </c>
       <c r="G10">
-        <v>1.015905281524823</v>
+        <v>1.582934233286949</v>
       </c>
       <c r="H10">
-        <v>0.660897593214699</v>
+        <v>0.02059724990727885</v>
       </c>
       <c r="I10">
-        <v>0.9259215753046774</v>
+        <v>0.0397034393865292</v>
       </c>
       <c r="J10">
-        <v>0.06033426515831053</v>
+        <v>0.8580965859138985</v>
       </c>
       <c r="K10">
-        <v>5.476797100672627</v>
+        <v>1.456045802703954</v>
       </c>
       <c r="L10">
-        <v>0.06082000467974424</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.094485655802863</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3548741243475604</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5.103637097744354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1154462283179782</v>
+        <v>0.3624432547605494</v>
       </c>
       <c r="D11">
-        <v>0.07692994579620205</v>
+        <v>0.02030559967929335</v>
       </c>
       <c r="E11">
-        <v>0.05350840162923554</v>
+        <v>0.2099006980049083</v>
       </c>
       <c r="F11">
-        <v>1.336243655679667</v>
+        <v>1.606942388332641</v>
       </c>
       <c r="G11">
-        <v>1.045826854665961</v>
+        <v>1.553108415348134</v>
       </c>
       <c r="H11">
-        <v>0.6669854539023987</v>
+        <v>0.03896848336980341</v>
       </c>
       <c r="I11">
-        <v>0.9501653284378833</v>
+        <v>0.04244426896785924</v>
       </c>
       <c r="J11">
-        <v>0.05970208279608968</v>
+        <v>0.839723608959531</v>
       </c>
       <c r="K11">
-        <v>5.881371710367148</v>
+        <v>1.398149787708306</v>
       </c>
       <c r="L11">
-        <v>0.06064048705533409</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.173126114815261</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2477408358012525</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5.002125722401843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1179166942104644</v>
+        <v>0.3260926387363412</v>
       </c>
       <c r="D12">
-        <v>0.07870858514552026</v>
+        <v>0.02297525288442159</v>
       </c>
       <c r="E12">
-        <v>0.05404373613910884</v>
+        <v>0.1633048264525172</v>
       </c>
       <c r="F12">
-        <v>1.350142869312293</v>
+        <v>1.55327417164726</v>
       </c>
       <c r="G12">
-        <v>1.057840910463426</v>
+        <v>1.485710124410531</v>
       </c>
       <c r="H12">
-        <v>0.6696446744825835</v>
+        <v>0.07675228800790279</v>
       </c>
       <c r="I12">
-        <v>0.9598635776232101</v>
+        <v>0.04236215009895083</v>
       </c>
       <c r="J12">
-        <v>0.05948148920440488</v>
+        <v>0.8049443712884283</v>
       </c>
       <c r="K12">
-        <v>6.035309793287695</v>
+        <v>1.316935755808686</v>
       </c>
       <c r="L12">
-        <v>0.06058537075674764</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.203066409900401</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1699087262188854</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.786515648945908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1173839197454498</v>
+        <v>0.2890990624625118</v>
       </c>
       <c r="D13">
-        <v>0.07832515320244937</v>
+        <v>0.02540444536898079</v>
       </c>
       <c r="E13">
-        <v>0.05392800033857448</v>
+        <v>0.1241939331431325</v>
       </c>
       <c r="F13">
-        <v>1.347117054377605</v>
+        <v>1.460456374354706</v>
       </c>
       <c r="G13">
-        <v>1.055222026901532</v>
+        <v>1.381350198271093</v>
       </c>
       <c r="H13">
-        <v>0.6690557484545678</v>
+        <v>0.1309344113504238</v>
       </c>
       <c r="I13">
-        <v>0.9577511039305051</v>
+        <v>0.04028000427361533</v>
       </c>
       <c r="J13">
-        <v>0.05952814421911867</v>
+        <v>0.7534313713563847</v>
       </c>
       <c r="K13">
-        <v>6.002121881997596</v>
+        <v>1.208177712908935</v>
       </c>
       <c r="L13">
-        <v>0.06059665874649056</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.196610690827896</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1107120439258082</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4.457443998691303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1156491554575467</v>
+        <v>0.2632490379477161</v>
       </c>
       <c r="D14">
-        <v>0.0770761106237714</v>
+        <v>0.02705321022954266</v>
       </c>
       <c r="E14">
-        <v>0.05355224584132579</v>
+        <v>0.1015756656523799</v>
       </c>
       <c r="F14">
-        <v>1.337372660783188</v>
+        <v>1.377666108226052</v>
       </c>
       <c r="G14">
-        <v>1.04680118694246</v>
+        <v>1.291540814135431</v>
       </c>
       <c r="H14">
-        <v>0.6671969667455926</v>
+        <v>0.1789457096508471</v>
       </c>
       <c r="I14">
-        <v>0.950952562739154</v>
+        <v>0.03803920401204319</v>
       </c>
       <c r="J14">
-        <v>0.05968355133629899</v>
+        <v>0.7097432954888063</v>
       </c>
       <c r="K14">
-        <v>5.894020880107689</v>
+        <v>1.119543618727604</v>
       </c>
       <c r="L14">
-        <v>0.06063569115513445</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.175585958656029</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08071384916924984</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4.1755640211573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1145886242712635</v>
+        <v>0.2560065495427182</v>
       </c>
       <c r="D15">
-        <v>0.07631209773358449</v>
+        <v>0.02737089524869063</v>
       </c>
       <c r="E15">
-        <v>0.05332336696591611</v>
+        <v>0.09646268571469463</v>
       </c>
       <c r="F15">
-        <v>1.331497610757197</v>
+        <v>1.348526946556859</v>
       </c>
       <c r="G15">
-        <v>1.041734112423441</v>
+        <v>1.260994725520817</v>
       </c>
       <c r="H15">
-        <v>0.6661053746018126</v>
+        <v>0.1908918083821618</v>
       </c>
       <c r="I15">
-        <v>0.9468570768174445</v>
+        <v>0.03713798616311514</v>
       </c>
       <c r="J15">
-        <v>0.05978122356414772</v>
+        <v>0.6951600602120607</v>
       </c>
       <c r="K15">
-        <v>5.827905098603878</v>
+        <v>1.091026389126782</v>
       </c>
       <c r="L15">
-        <v>0.06066129363802375</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.162729365577007</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0748277940554658</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4.080254112340754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1085413456997628</v>
+        <v>0.2484639454744908</v>
       </c>
       <c r="D16">
-        <v>0.07194917934533862</v>
+        <v>0.0259257585073378</v>
       </c>
       <c r="E16">
-        <v>0.05203086421433234</v>
+        <v>0.09454105488005915</v>
       </c>
       <c r="F16">
-        <v>1.299218097300326</v>
+        <v>1.272232140193651</v>
       </c>
       <c r="G16">
-        <v>1.014041974748807</v>
+        <v>1.188257109099169</v>
       </c>
       <c r="H16">
-        <v>0.6605476678729474</v>
+        <v>0.1755993666390481</v>
       </c>
       <c r="I16">
-        <v>0.9244070959395998</v>
+        <v>0.03313656458800818</v>
       </c>
       <c r="J16">
-        <v>0.06037815173487715</v>
+        <v>0.6626746490422306</v>
       </c>
       <c r="K16">
-        <v>5.450453551347152</v>
+        <v>1.035682343710405</v>
       </c>
       <c r="L16">
-        <v>0.06083350250129982</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.08936753710551</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07408991687540478</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3.857877560912357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1048570018647155</v>
+        <v>0.2557550967376443</v>
       </c>
       <c r="D17">
-        <v>0.0692853622438605</v>
+        <v>0.02392343832092436</v>
       </c>
       <c r="E17">
-        <v>0.05125444580103355</v>
+        <v>0.1040039366436769</v>
       </c>
       <c r="F17">
-        <v>1.280604092190373</v>
+        <v>1.257394780363853</v>
       </c>
       <c r="G17">
-        <v>0.9982031346049496</v>
+        <v>1.179688432857262</v>
       </c>
       <c r="H17">
-        <v>0.6577376373206931</v>
+        <v>0.1365679019845345</v>
       </c>
       <c r="I17">
-        <v>0.9115076076920374</v>
+        <v>0.03127345385524727</v>
       </c>
       <c r="J17">
-        <v>0.06077669069235014</v>
+        <v>0.6607740491919287</v>
       </c>
       <c r="K17">
-        <v>5.220082720121468</v>
+        <v>1.03962538950411</v>
       </c>
       <c r="L17">
-        <v>0.06096139573632797</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.04462390500332</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0873654255666132</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3.835618903241084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1027466572535047</v>
+        <v>0.279586981165366</v>
       </c>
       <c r="D18">
-        <v>0.06775749273000997</v>
+        <v>0.02135418334002281</v>
       </c>
       <c r="E18">
-        <v>0.05081371535733403</v>
+        <v>0.1291686761461506</v>
       </c>
       <c r="F18">
-        <v>1.270315370986367</v>
+        <v>1.295538170119713</v>
       </c>
       <c r="G18">
-        <v>0.9894959494902764</v>
+        <v>1.227784546937301</v>
       </c>
       <c r="H18">
-        <v>0.6563328062558185</v>
+        <v>0.08370429297822568</v>
       </c>
       <c r="I18">
-        <v>0.9043947920947417</v>
+        <v>0.03082214210146361</v>
       </c>
       <c r="J18">
-        <v>0.06101747692978421</v>
+        <v>0.6860873927596174</v>
       </c>
       <c r="K18">
-        <v>5.08797862255301</v>
+        <v>1.098367715870467</v>
       </c>
       <c r="L18">
-        <v>0.06104294207939276</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.018977448923152</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1241949222241274</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.99049786592974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.102033589095484</v>
+        <v>0.3155883022967885</v>
       </c>
       <c r="D19">
-        <v>0.0672408843792951</v>
+        <v>0.01894528403764539</v>
       </c>
       <c r="E19">
-        <v>0.05066547572389446</v>
+        <v>0.1717478492652837</v>
       </c>
       <c r="F19">
-        <v>1.266901745444272</v>
+        <v>1.369701028591692</v>
       </c>
       <c r="G19">
-        <v>0.9866152574833364</v>
+        <v>1.314116380248976</v>
       </c>
       <c r="H19">
-        <v>0.655892654434723</v>
+        <v>0.03973684896779162</v>
       </c>
       <c r="I19">
-        <v>0.9020378829479654</v>
+        <v>0.03199158003779612</v>
       </c>
       <c r="J19">
-        <v>0.0611009578263122</v>
+        <v>0.729394142368335</v>
       </c>
       <c r="K19">
-        <v>5.043315714957373</v>
+        <v>1.192926977497223</v>
       </c>
       <c r="L19">
-        <v>0.06107190628204506</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.010308609206248</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1927576392009982</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>4.264145319782358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1052482841242863</v>
+        <v>0.3888611272491431</v>
       </c>
       <c r="D20">
-        <v>0.06956847811157729</v>
+        <v>0.01670042831453067</v>
       </c>
       <c r="E20">
-        <v>0.05133648720826045</v>
+        <v>0.261931354751141</v>
       </c>
       <c r="F20">
-        <v>1.282541947046781</v>
+        <v>1.551657468171555</v>
       </c>
       <c r="G20">
-        <v>0.9998470793317153</v>
+        <v>1.51527481150265</v>
       </c>
       <c r="H20">
-        <v>0.6580146933791156</v>
+        <v>0.01866328435248343</v>
       </c>
       <c r="I20">
-        <v>0.9128487345128704</v>
+        <v>0.03723053661772013</v>
       </c>
       <c r="J20">
-        <v>0.06073306218830865</v>
+        <v>0.8268550042910192</v>
       </c>
       <c r="K20">
-        <v>5.244563995394515</v>
+        <v>1.396676378909049</v>
       </c>
       <c r="L20">
-        <v>0.0609469506120206</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.049377582438638</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3458777549395222</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4.894701344961732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1161582646109878</v>
+        <v>0.4273695802287563</v>
       </c>
       <c r="D21">
-        <v>0.07744276112698145</v>
+        <v>0.01791774995398576</v>
       </c>
       <c r="E21">
-        <v>0.05366234565610917</v>
+        <v>0.2956421395919833</v>
       </c>
       <c r="F21">
-        <v>1.340215187486223</v>
+        <v>1.744196598060313</v>
       </c>
       <c r="G21">
-        <v>1.049255522704684</v>
+        <v>1.70931331834916</v>
       </c>
       <c r="H21">
-        <v>0.6677330944611697</v>
+        <v>0.02459097491377205</v>
       </c>
       <c r="I21">
-        <v>0.952935031703916</v>
+        <v>0.04626637421034996</v>
       </c>
       <c r="J21">
-        <v>0.05963738548882702</v>
+        <v>0.9163060912272556</v>
       </c>
       <c r="K21">
-        <v>5.92575187252578</v>
+        <v>1.563095098475216</v>
       </c>
       <c r="L21">
-        <v>0.060623872205948</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.181756873885135</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3968347862321195</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5.493599099348842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1233793069459068</v>
+        <v>0.4513947617166849</v>
       </c>
       <c r="D22">
-        <v>0.0826355472819813</v>
+        <v>0.01877210840395094</v>
       </c>
       <c r="E22">
-        <v>0.05523920055844478</v>
+        <v>0.3137122035516171</v>
       </c>
       <c r="F22">
-        <v>1.38204795651049</v>
+        <v>1.867763793151511</v>
       </c>
       <c r="G22">
-        <v>1.085563285910041</v>
+        <v>1.833231855380433</v>
       </c>
       <c r="H22">
-        <v>0.6761623702706032</v>
+        <v>0.02868751165212613</v>
       </c>
       <c r="I22">
-        <v>0.9821750617730984</v>
+        <v>0.05226691058538435</v>
       </c>
       <c r="J22">
-        <v>0.05903143485058493</v>
+        <v>0.9733858743649364</v>
       </c>
       <c r="K22">
-        <v>6.375289406796526</v>
+        <v>1.668759384006393</v>
       </c>
       <c r="L22">
-        <v>0.06048801886160859</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.269224224012589</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4218715382017422</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.875970231819963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1195163602449156</v>
+        <v>0.4407748949988672</v>
       </c>
       <c r="D23">
-        <v>0.07985937803790222</v>
+        <v>0.01826762229940648</v>
       </c>
       <c r="E23">
-        <v>0.05439216715208595</v>
+        <v>0.3046282048369306</v>
       </c>
       <c r="F23">
-        <v>1.359320598200895</v>
+        <v>1.804751279896109</v>
       </c>
       <c r="G23">
-        <v>1.06579565071921</v>
+        <v>1.77051364774465</v>
       </c>
       <c r="H23">
-        <v>0.6714633882339598</v>
+        <v>0.02650740698631204</v>
       </c>
       <c r="I23">
-        <v>0.9662748904127909</v>
+        <v>0.04887102693521861</v>
       </c>
       <c r="J23">
-        <v>0.05934439456414964</v>
+        <v>0.9446073570057365</v>
       </c>
       <c r="K23">
-        <v>6.134925039745326</v>
+        <v>1.616498146104192</v>
       </c>
       <c r="L23">
-        <v>0.06055342258567009</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.222446226033611</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4082212341104707</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5.6826704305725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.105071361147651</v>
+        <v>0.3967732037731651</v>
       </c>
       <c r="D24">
-        <v>0.06944047032053646</v>
+        <v>0.01643870692964455</v>
       </c>
       <c r="E24">
-        <v>0.05129937876254331</v>
+        <v>0.2693448853604252</v>
       </c>
       <c r="F24">
-        <v>1.281664561859841</v>
+        <v>1.563009919464164</v>
       </c>
       <c r="G24">
-        <v>0.9991026144192432</v>
+        <v>1.528844556536654</v>
       </c>
       <c r="H24">
-        <v>0.6578887821632264</v>
+        <v>0.0188349336723781</v>
       </c>
       <c r="I24">
-        <v>0.9122414697836163</v>
+        <v>0.03705041007089083</v>
       </c>
       <c r="J24">
-        <v>0.06075275039137296</v>
+        <v>0.8336486754952546</v>
       </c>
       <c r="K24">
-        <v>5.233494962863006</v>
+        <v>1.412650327379751</v>
       </c>
       <c r="L24">
-        <v>0.06095345632081717</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.047228205935099</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3572233834044596</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.937684889103139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08982033816894841</v>
+        <v>0.3488745549767884</v>
       </c>
       <c r="D25">
-        <v>0.05836206363677121</v>
+        <v>0.01446309481561059</v>
       </c>
       <c r="E25">
-        <v>0.04818450766208571</v>
+        <v>0.2313053777437943</v>
       </c>
       <c r="F25">
-        <v>1.213664852514626</v>
+        <v>1.305600179256942</v>
       </c>
       <c r="G25">
-        <v>0.9423647002028304</v>
+        <v>1.270977304008511</v>
       </c>
       <c r="H25">
-        <v>0.6512377038783654</v>
+        <v>0.0117653172339435</v>
       </c>
       <c r="I25">
-        <v>0.8655338588308723</v>
+        <v>0.02581561506013053</v>
       </c>
       <c r="J25">
-        <v>0.06271032610161242</v>
+        <v>0.7155386056488737</v>
       </c>
       <c r="K25">
-        <v>4.276043731663833</v>
+        <v>1.194391749421371</v>
       </c>
       <c r="L25">
-        <v>0.06168826169212593</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8615511338309148</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3025989424065045</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4.143320442464471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3183626537726525</v>
+        <v>0.2217442004598169</v>
       </c>
       <c r="D2">
-        <v>0.01288900530021664</v>
+        <v>0.01622953975622288</v>
       </c>
       <c r="E2">
-        <v>0.2045602703770228</v>
+        <v>0.1770719764549895</v>
       </c>
       <c r="F2">
-        <v>1.125367544246274</v>
+        <v>0.9900191487172378</v>
       </c>
       <c r="G2">
-        <v>1.091089275150949</v>
+        <v>0.9158398609180125</v>
       </c>
       <c r="H2">
-        <v>0.007482153688630422</v>
+        <v>0.00617813069253309</v>
       </c>
       <c r="I2">
-        <v>0.01822634485985208</v>
+        <v>0.01540951914923827</v>
       </c>
       <c r="J2">
-        <v>0.6337099497305587</v>
+        <v>0.6114321751249321</v>
       </c>
       <c r="K2">
-        <v>1.044501376700552</v>
+        <v>0.8587821700152105</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3988325422075931</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2694477697121371</v>
       </c>
       <c r="N2">
-        <v>0.2619161011959221</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2748850087153727</v>
       </c>
       <c r="Q2">
-        <v>3.590303215626818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3.101520045026348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2942741269802411</v>
+        <v>0.2094004732397323</v>
       </c>
       <c r="D3">
-        <v>0.01187745907881244</v>
+        <v>0.01460041970456594</v>
       </c>
       <c r="E3">
-        <v>0.1855697559166245</v>
+        <v>0.1620735644548148</v>
       </c>
       <c r="F3">
-        <v>1.000058898565129</v>
+        <v>0.8855765812519678</v>
       </c>
       <c r="G3">
-        <v>0.9651148042441804</v>
+        <v>0.8132687061645782</v>
       </c>
       <c r="H3">
-        <v>0.005001832812645435</v>
+        <v>0.004165098773537879</v>
       </c>
       <c r="I3">
-        <v>0.01381878356161748</v>
+        <v>0.01194259852175339</v>
       </c>
       <c r="J3">
-        <v>0.5763689446032316</v>
+        <v>0.5637107742532237</v>
       </c>
       <c r="K3">
-        <v>0.9374871727510126</v>
+        <v>0.7791693170307354</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3817650628785358</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2269187667826245</v>
       </c>
       <c r="N3">
-        <v>0.2347765003527797</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2463638860185284</v>
       </c>
       <c r="Q3">
-        <v>3.20293814382805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.788907579095024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2791973669831265</v>
+        <v>0.20155123036443</v>
       </c>
       <c r="D4">
-        <v>0.01125247681079244</v>
+        <v>0.01360633895273011</v>
       </c>
       <c r="E4">
-        <v>0.1738298841184935</v>
+        <v>0.1527620663663711</v>
       </c>
       <c r="F4">
-        <v>0.9233866052597222</v>
+        <v>0.8214848412798545</v>
       </c>
       <c r="G4">
-        <v>0.8878946360722466</v>
+        <v>0.7502975586413214</v>
       </c>
       <c r="H4">
-        <v>0.003680680912468204</v>
+        <v>0.00308712713009196</v>
       </c>
       <c r="I4">
-        <v>0.01135473323122405</v>
+        <v>0.009992746103312022</v>
       </c>
       <c r="J4">
-        <v>0.5412914592922391</v>
+        <v>0.5342590654286283</v>
       </c>
       <c r="K4">
-        <v>0.8717035441413543</v>
+        <v>0.729975396025452</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3707685264757359</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2016047135876633</v>
       </c>
       <c r="N4">
-        <v>0.2181293558732236</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2288804483097735</v>
       </c>
       <c r="Q4">
-        <v>2.965628735533016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.596714646205555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2724388596571714</v>
+        <v>0.1979184748454159</v>
       </c>
       <c r="D5">
-        <v>0.01100754109838498</v>
+        <v>0.01321969110919063</v>
       </c>
       <c r="E5">
-        <v>0.1688865580219385</v>
+        <v>0.1488178212032878</v>
       </c>
       <c r="F5">
-        <v>0.8914643847191428</v>
+        <v>0.794695929872077</v>
       </c>
       <c r="G5">
-        <v>0.8556016294816544</v>
+        <v>0.7238659611934537</v>
       </c>
       <c r="H5">
-        <v>0.003185726830575053</v>
+        <v>0.002681773835519263</v>
       </c>
       <c r="I5">
-        <v>0.01044780513335342</v>
+        <v>0.009295572564668397</v>
       </c>
       <c r="J5">
-        <v>0.5266032494919699</v>
+        <v>0.5218240380549162</v>
       </c>
       <c r="K5">
-        <v>0.8438523573125707</v>
+        <v>0.7089496139309261</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3657781505702005</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1911867200399371</v>
       </c>
       <c r="N5">
-        <v>0.2114130240487881</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2218294298066965</v>
       </c>
       <c r="Q5">
-        <v>2.866346565555091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.515881819024656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2706511173396251</v>
+        <v>0.1968662949401789</v>
       </c>
       <c r="D6">
-        <v>0.01098023591162089</v>
+        <v>0.01317671501930384</v>
       </c>
       <c r="E6">
-        <v>0.1678958895927956</v>
+        <v>0.1480106727331361</v>
       </c>
       <c r="F6">
-        <v>0.885270219833231</v>
+        <v>0.7894254049014506</v>
       </c>
       <c r="G6">
-        <v>0.8492051223435624</v>
+        <v>0.7185430370782342</v>
       </c>
       <c r="H6">
-        <v>0.003101631445826314</v>
+        <v>0.00261273563329012</v>
       </c>
       <c r="I6">
-        <v>0.01035797973438868</v>
+        <v>0.009259329894192092</v>
       </c>
       <c r="J6">
-        <v>0.5236501806773219</v>
+        <v>0.5192747815315641</v>
       </c>
       <c r="K6">
-        <v>0.8379813108833645</v>
+        <v>0.7043561764789956</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.364479181694584</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.189100413800162</v>
       </c>
       <c r="N6">
-        <v>0.2103789679138472</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2207432320198919</v>
       </c>
       <c r="Q6">
-        <v>2.846591677046689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.499482902292669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2772946796459763</v>
+        <v>0.2003993383522484</v>
       </c>
       <c r="D7">
-        <v>0.01128604784540599</v>
+        <v>0.01369365481515139</v>
       </c>
       <c r="E7">
-        <v>0.1733020802463514</v>
+        <v>0.1523251389888962</v>
       </c>
       <c r="F7">
-        <v>0.9204997524709881</v>
+        <v>0.8175228729017903</v>
       </c>
       <c r="G7">
-        <v>0.8846223757321923</v>
+        <v>0.7524496373356584</v>
       </c>
       <c r="H7">
-        <v>0.003659946971701022</v>
+        <v>0.003065787243003881</v>
       </c>
       <c r="I7">
-        <v>0.01148332119466655</v>
+        <v>0.01016578923236811</v>
       </c>
       <c r="J7">
-        <v>0.5396813900050574</v>
+        <v>0.525045308727087</v>
       </c>
       <c r="K7">
-        <v>0.8679185701705592</v>
+        <v>0.7256347018641875</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3690155592895792</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2000777123686177</v>
       </c>
       <c r="N7">
-        <v>0.2182613402418667</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2289627956755922</v>
       </c>
       <c r="Q7">
-        <v>2.9553198496032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.582611184082594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3076988310175892</v>
+        <v>0.2163239180084631</v>
       </c>
       <c r="D8">
-        <v>0.01259076287170124</v>
+        <v>0.01586350274683923</v>
       </c>
       <c r="E8">
-        <v>0.1974133489568182</v>
+        <v>0.1714715313505657</v>
       </c>
       <c r="F8">
-        <v>1.078815446284025</v>
+        <v>0.9464906598572753</v>
       </c>
       <c r="G8">
-        <v>1.043827452016814</v>
+        <v>0.8940397113044156</v>
       </c>
       <c r="H8">
-        <v>0.006559398196255284</v>
+        <v>0.005413102718520246</v>
       </c>
       <c r="I8">
-        <v>0.01680793017376203</v>
+        <v>0.01436004854691753</v>
       </c>
       <c r="J8">
-        <v>0.6120252402154875</v>
+        <v>0.5677042156059855</v>
       </c>
       <c r="K8">
-        <v>1.003061837725269</v>
+        <v>0.8238932387214746</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3900737430154493</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2519184756447927</v>
       </c>
       <c r="N8">
-        <v>0.2528513455951042</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2651758297685092</v>
       </c>
       <c r="Q8">
-        <v>3.444625473562866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.966668265267856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3683839731747724</v>
+        <v>0.2472017591847546</v>
       </c>
       <c r="D9">
-        <v>0.0150591126973616</v>
+        <v>0.01994824631294634</v>
       </c>
       <c r="E9">
-        <v>0.244968058238257</v>
+        <v>0.2088832655174926</v>
       </c>
       <c r="F9">
-        <v>1.3964515441956</v>
+        <v>1.209044202709251</v>
       </c>
       <c r="G9">
-        <v>1.362753526315601</v>
+        <v>1.158346773206318</v>
       </c>
       <c r="H9">
-        <v>0.01404489094576744</v>
+        <v>0.01143465206861119</v>
       </c>
       <c r="I9">
-        <v>0.02920905939322349</v>
+        <v>0.02392005262190811</v>
       </c>
       <c r="J9">
-        <v>0.7577301696953214</v>
+        <v>0.6802630354609107</v>
       </c>
       <c r="K9">
-        <v>1.273999237668008</v>
+        <v>1.023506292786749</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4310052442992074</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3633167300825235</v>
       </c>
       <c r="N9">
-        <v>0.3205488747439347</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3363057003922165</v>
       </c>
       <c r="Q9">
-        <v>4.42636081924627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.751258976702445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4041383091526569</v>
+        <v>0.2651296980530589</v>
       </c>
       <c r="D10">
-        <v>0.01710108573822389</v>
+        <v>0.02358225570726091</v>
       </c>
       <c r="E10">
-        <v>0.27042560514775</v>
+        <v>0.2280643906969289</v>
       </c>
       <c r="F10">
-        <v>1.618587444140076</v>
+        <v>1.383438953539525</v>
       </c>
       <c r="G10">
-        <v>1.582934233286949</v>
+        <v>1.370917803832725</v>
       </c>
       <c r="H10">
-        <v>0.02059724990727885</v>
+        <v>0.01663884573138885</v>
       </c>
       <c r="I10">
-        <v>0.0397034393865292</v>
+        <v>0.03191063297784158</v>
       </c>
       <c r="J10">
-        <v>0.8580965859138985</v>
+        <v>0.711825215731352</v>
       </c>
       <c r="K10">
-        <v>1.456045802703954</v>
+        <v>1.149114441486191</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4515033473995942</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.441319916874626</v>
       </c>
       <c r="N10">
-        <v>0.3548741243475604</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3721751037946888</v>
       </c>
       <c r="Q10">
-        <v>5.103637097744354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.258521662766327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3624432547605494</v>
+        <v>0.2431066012882042</v>
       </c>
       <c r="D11">
-        <v>0.02030559967929335</v>
+        <v>0.02897205375644418</v>
       </c>
       <c r="E11">
-        <v>0.2099006980049083</v>
+        <v>0.1746940263338956</v>
       </c>
       <c r="F11">
-        <v>1.606942388332641</v>
+        <v>1.355853192201678</v>
       </c>
       <c r="G11">
-        <v>1.553108415348134</v>
+        <v>1.411840515063346</v>
       </c>
       <c r="H11">
-        <v>0.03896848336980341</v>
+        <v>0.03482631063717179</v>
       </c>
       <c r="I11">
-        <v>0.04244426896785924</v>
+        <v>0.03408037262018304</v>
       </c>
       <c r="J11">
-        <v>0.839723608959531</v>
+        <v>0.6062357148147726</v>
       </c>
       <c r="K11">
-        <v>1.398149787708306</v>
+        <v>1.086098004794351</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4181475628042151</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.428805273823329</v>
       </c>
       <c r="N11">
-        <v>0.2477408358012525</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2595209289816296</v>
       </c>
       <c r="Q11">
-        <v>5.002125722401843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.106261617640826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3260926387363412</v>
+        <v>0.2249049925757944</v>
       </c>
       <c r="D12">
-        <v>0.02297525288442159</v>
+        <v>0.03299074566684723</v>
       </c>
       <c r="E12">
-        <v>0.1633048264525172</v>
+        <v>0.1349302876629324</v>
       </c>
       <c r="F12">
-        <v>1.55327417164726</v>
+        <v>1.303886250914246</v>
       </c>
       <c r="G12">
-        <v>1.485710124410531</v>
+        <v>1.385130710430929</v>
       </c>
       <c r="H12">
-        <v>0.07675228800790279</v>
+        <v>0.07270735817910889</v>
       </c>
       <c r="I12">
-        <v>0.04236215009895083</v>
+        <v>0.03399910029493736</v>
       </c>
       <c r="J12">
-        <v>0.8049443712884283</v>
+        <v>0.5422574793460484</v>
       </c>
       <c r="K12">
-        <v>1.316935755808686</v>
+        <v>1.01600891579325</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3896272351102681</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4049887466622124</v>
       </c>
       <c r="N12">
-        <v>0.1699087262188854</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1770509776369167</v>
       </c>
       <c r="Q12">
-        <v>4.786515648945908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.901918764133256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2890990624625118</v>
+        <v>0.2067028129937398</v>
       </c>
       <c r="D13">
-        <v>0.02540444536898079</v>
+        <v>0.03596666643100122</v>
       </c>
       <c r="E13">
-        <v>0.1241939331431325</v>
+        <v>0.1027742960057303</v>
       </c>
       <c r="F13">
-        <v>1.460456374354706</v>
+        <v>1.22978319192994</v>
       </c>
       <c r="G13">
-        <v>1.381350198271093</v>
+        <v>1.287963091229898</v>
       </c>
       <c r="H13">
-        <v>0.1309344113504238</v>
+        <v>0.1272259453675986</v>
       </c>
       <c r="I13">
-        <v>0.04028000427361533</v>
+        <v>0.03248257930655463</v>
       </c>
       <c r="J13">
-        <v>0.7534313713563847</v>
+        <v>0.515250302895808</v>
       </c>
       <c r="K13">
-        <v>1.208177712908935</v>
+        <v>0.9340639902437999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3617398034894848</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3705890422197555</v>
       </c>
       <c r="N13">
-        <v>0.1107120439258082</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1136621089808472</v>
       </c>
       <c r="Q13">
-        <v>4.457443998691303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.643989617306659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2632490379477161</v>
+        <v>0.1943269808028845</v>
       </c>
       <c r="D14">
-        <v>0.02705321022954266</v>
+        <v>0.03758371336095223</v>
       </c>
       <c r="E14">
-        <v>0.1015756656523799</v>
+        <v>0.0850171906856243</v>
       </c>
       <c r="F14">
-        <v>1.377666108226052</v>
+        <v>1.167232336209977</v>
       </c>
       <c r="G14">
-        <v>1.291540814135431</v>
+        <v>1.189843453204617</v>
       </c>
       <c r="H14">
-        <v>0.1789457096508471</v>
+        <v>0.175561795783409</v>
       </c>
       <c r="I14">
-        <v>0.03803920401204319</v>
+        <v>0.03088471551060934</v>
       </c>
       <c r="J14">
-        <v>0.7097432954888063</v>
+        <v>0.5104151613729613</v>
       </c>
       <c r="K14">
-        <v>1.119543618727604</v>
+        <v>0.8706651482081611</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3420178747968805</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3417192033142626</v>
       </c>
       <c r="N14">
-        <v>0.08071384916924984</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0809266335541281</v>
       </c>
       <c r="Q14">
-        <v>4.1755640211573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.436756120885434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2560065495427182</v>
+        <v>0.1908251214658776</v>
       </c>
       <c r="D15">
-        <v>0.02737089524869063</v>
+        <v>0.03772389300529966</v>
       </c>
       <c r="E15">
-        <v>0.09646268571469463</v>
+        <v>0.08116896234526116</v>
       </c>
       <c r="F15">
-        <v>1.348526946556859</v>
+        <v>1.146250287360004</v>
       </c>
       <c r="G15">
-        <v>1.260994725520817</v>
+        <v>1.151986622500942</v>
       </c>
       <c r="H15">
-        <v>0.1908918083821618</v>
+        <v>0.1876442095287985</v>
       </c>
       <c r="I15">
-        <v>0.03713798616311514</v>
+        <v>0.03028124501640672</v>
       </c>
       <c r="J15">
-        <v>0.6951600602120607</v>
+        <v>0.5147754506658799</v>
       </c>
       <c r="K15">
-        <v>1.091026389126782</v>
+        <v>0.8513548794590662</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3367342132630853</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3320348837181086</v>
       </c>
       <c r="N15">
-        <v>0.0748277940554658</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07443863731450406</v>
       </c>
       <c r="Q15">
-        <v>4.080254112340754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.370920315597402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2484639454744908</v>
+        <v>0.1860211717995206</v>
       </c>
       <c r="D16">
-        <v>0.0259257585073378</v>
+        <v>0.03480052024847069</v>
       </c>
       <c r="E16">
-        <v>0.09454105488005915</v>
+        <v>0.08003909795370134</v>
       </c>
       <c r="F16">
-        <v>1.272232140193651</v>
+        <v>1.09761331222056</v>
       </c>
       <c r="G16">
-        <v>1.188257109099169</v>
+        <v>1.036949600941057</v>
       </c>
       <c r="H16">
-        <v>0.1755993666390481</v>
+        <v>0.1729094502887847</v>
       </c>
       <c r="I16">
-        <v>0.03313656458800818</v>
+        <v>0.02738513828133904</v>
       </c>
       <c r="J16">
-        <v>0.6626746490422306</v>
+        <v>0.563332662398949</v>
       </c>
       <c r="K16">
-        <v>1.035682343710405</v>
+        <v>0.8221912301061494</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3350564217744392</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3097654368842768</v>
       </c>
       <c r="N16">
-        <v>0.07408991687540478</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07423217645300539</v>
       </c>
       <c r="Q16">
-        <v>3.857877560912357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.245198027700866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2557550967376443</v>
+        <v>0.1884921866262239</v>
       </c>
       <c r="D17">
-        <v>0.02392343832092436</v>
+        <v>0.03186739775873804</v>
       </c>
       <c r="E17">
-        <v>0.1040039366436769</v>
+        <v>0.08760578617023818</v>
       </c>
       <c r="F17">
-        <v>1.257394780363853</v>
+        <v>1.091570397447398</v>
       </c>
       <c r="G17">
-        <v>1.179688432857262</v>
+        <v>1.007319150092201</v>
       </c>
       <c r="H17">
-        <v>0.1365679019845345</v>
+        <v>0.1341234094042534</v>
       </c>
       <c r="I17">
-        <v>0.03127345385524727</v>
+        <v>0.02601454209774623</v>
       </c>
       <c r="J17">
-        <v>0.6607740491919287</v>
+        <v>0.5951690247894419</v>
       </c>
       <c r="K17">
-        <v>1.03962538950411</v>
+        <v>0.8319092647279049</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3440000976951154</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3071572008970662</v>
       </c>
       <c r="N17">
-        <v>0.0873654255666132</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08935069465925238</v>
       </c>
       <c r="Q17">
-        <v>3.835618903241084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.251920182939642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.279586981165366</v>
+        <v>0.1994595403392339</v>
       </c>
       <c r="D18">
-        <v>0.02135418334002281</v>
+        <v>0.02853558174499327</v>
       </c>
       <c r="E18">
-        <v>0.1291686761461506</v>
+        <v>0.1081297199170166</v>
       </c>
       <c r="F18">
-        <v>1.295538170119713</v>
+        <v>1.12618838641238</v>
       </c>
       <c r="G18">
-        <v>1.227784546937301</v>
+        <v>1.037732830941906</v>
       </c>
       <c r="H18">
-        <v>0.08370429297822568</v>
+        <v>0.08127011284745578</v>
       </c>
       <c r="I18">
-        <v>0.03082214210146361</v>
+        <v>0.02556932216070607</v>
       </c>
       <c r="J18">
-        <v>0.6860873927596174</v>
+        <v>0.6307960531229497</v>
       </c>
       <c r="K18">
-        <v>1.098367715870467</v>
+        <v>0.8813502685330832</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3652068078865867</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3228541153934046</v>
       </c>
       <c r="N18">
-        <v>0.1241949222241274</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1294884281272743</v>
       </c>
       <c r="Q18">
-        <v>3.99049786592974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.390897368319031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3155883022967885</v>
+        <v>0.2174453788740038</v>
       </c>
       <c r="D19">
-        <v>0.01894528403764539</v>
+        <v>0.02547566764894427</v>
       </c>
       <c r="E19">
-        <v>0.1717478492652837</v>
+        <v>0.1439589742446827</v>
       </c>
       <c r="F19">
-        <v>1.369701028591692</v>
+        <v>1.188586723913417</v>
       </c>
       <c r="G19">
-        <v>1.314116380248976</v>
+        <v>1.106127370465543</v>
       </c>
       <c r="H19">
-        <v>0.03973684896779162</v>
+        <v>0.03709310512822128</v>
       </c>
       <c r="I19">
-        <v>0.03199158003779612</v>
+        <v>0.02647465033811081</v>
       </c>
       <c r="J19">
-        <v>0.729394142368335</v>
+        <v>0.6708452872346697</v>
       </c>
       <c r="K19">
-        <v>1.192926977497223</v>
+        <v>0.9563610348191247</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3937133635073522</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3510280968082427</v>
       </c>
       <c r="N19">
-        <v>0.1927576392009982</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2024884885834837</v>
       </c>
       <c r="Q19">
-        <v>4.264145319782358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.618645746927086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3888611272491431</v>
+        <v>0.2563998219757053</v>
       </c>
       <c r="D20">
-        <v>0.01670042831453067</v>
+        <v>0.02270238160543769</v>
       </c>
       <c r="E20">
-        <v>0.261931354751141</v>
+        <v>0.2213433596261822</v>
       </c>
       <c r="F20">
-        <v>1.551657468171555</v>
+        <v>1.334984047333364</v>
       </c>
       <c r="G20">
-        <v>1.51527481150265</v>
+        <v>1.28745185229613</v>
       </c>
       <c r="H20">
-        <v>0.01866328435248343</v>
+        <v>0.01512756281163652</v>
       </c>
       <c r="I20">
-        <v>0.03723053661772013</v>
+        <v>0.03038778338651849</v>
       </c>
       <c r="J20">
-        <v>0.8268550042910192</v>
+        <v>0.7264720355098575</v>
       </c>
       <c r="K20">
-        <v>1.396676378909049</v>
+        <v>1.110167217470035</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.444050080910408</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4182086746290494</v>
       </c>
       <c r="N20">
-        <v>0.3458777549395222</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.362972098558771</v>
       </c>
       <c r="Q20">
-        <v>4.894701344961732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.115973454841651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4273695802287563</v>
+        <v>0.278374011581235</v>
       </c>
       <c r="D21">
-        <v>0.01791774995398576</v>
+        <v>0.02575243860530918</v>
       </c>
       <c r="E21">
-        <v>0.2956421395919833</v>
+        <v>0.2490101751405476</v>
       </c>
       <c r="F21">
-        <v>1.744196598060313</v>
+        <v>1.460506278405191</v>
       </c>
       <c r="G21">
-        <v>1.70931331834916</v>
+        <v>1.574156126485462</v>
       </c>
       <c r="H21">
-        <v>0.02459097491377205</v>
+        <v>0.01964968352550445</v>
       </c>
       <c r="I21">
-        <v>0.04626637421034996</v>
+        <v>0.03689896660191661</v>
       </c>
       <c r="J21">
-        <v>0.9163060912272556</v>
+        <v>0.6242523934804325</v>
       </c>
       <c r="K21">
-        <v>1.563095098475216</v>
+        <v>1.206750944819603</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.459492282397413</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4793754452831962</v>
       </c>
       <c r="N21">
-        <v>0.3968347862321195</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4151342959595468</v>
       </c>
       <c r="Q21">
-        <v>5.493599099348842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.474229057147625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4513947617166849</v>
+        <v>0.292548063414813</v>
       </c>
       <c r="D22">
-        <v>0.01877210840395094</v>
+        <v>0.02793522276106231</v>
       </c>
       <c r="E22">
-        <v>0.3137122035516171</v>
+        <v>0.2636800115398046</v>
       </c>
       <c r="F22">
-        <v>1.867763793151511</v>
+        <v>1.538055346234728</v>
       </c>
       <c r="G22">
-        <v>1.833231855380433</v>
+        <v>1.773053451859454</v>
       </c>
       <c r="H22">
-        <v>0.02868751165212613</v>
+        <v>0.02275679328606794</v>
       </c>
       <c r="I22">
-        <v>0.05226691058538435</v>
+        <v>0.04105562913653849</v>
       </c>
       <c r="J22">
-        <v>0.9733858743649364</v>
+        <v>0.5539529849873475</v>
       </c>
       <c r="K22">
-        <v>1.668759384006393</v>
+        <v>1.265466540867152</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4677865681438078</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.5182852703717842</v>
       </c>
       <c r="N22">
-        <v>0.4218715382017422</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4405024481875159</v>
       </c>
       <c r="Q22">
-        <v>5.875970231819963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.691677953968451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4407748949988672</v>
+        <v>0.2860300594331875</v>
       </c>
       <c r="D23">
-        <v>0.01826762229940648</v>
+        <v>0.02656967735848781</v>
       </c>
       <c r="E23">
-        <v>0.3046282048369306</v>
+        <v>0.2562477848805216</v>
       </c>
       <c r="F23">
-        <v>1.804751279896109</v>
+        <v>1.503020350393797</v>
       </c>
       <c r="G23">
-        <v>1.77051364774465</v>
+        <v>1.654688882372398</v>
       </c>
       <c r="H23">
-        <v>0.02650740698631204</v>
+        <v>0.02112469120615912</v>
       </c>
       <c r="I23">
-        <v>0.04887102693521861</v>
+        <v>0.03860810858843866</v>
       </c>
       <c r="J23">
-        <v>0.9446073570057365</v>
+        <v>0.6093788131952778</v>
       </c>
       <c r="K23">
-        <v>1.616498146104192</v>
+        <v>1.240540807411548</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.465622109334717</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5000693354402728</v>
       </c>
       <c r="N23">
-        <v>0.4082212341104707</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4268032510680513</v>
       </c>
       <c r="Q23">
-        <v>5.6826704305725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.59850512741491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3967732037731651</v>
+        <v>0.2609837660163237</v>
       </c>
       <c r="D24">
-        <v>0.01643870692964455</v>
+        <v>0.02229207630560381</v>
       </c>
       <c r="E24">
-        <v>0.2693448853604252</v>
+        <v>0.2278615855609161</v>
       </c>
       <c r="F24">
-        <v>1.563009919464164</v>
+        <v>1.344992904404393</v>
       </c>
       <c r="G24">
-        <v>1.528844556536654</v>
+        <v>1.298007126477415</v>
       </c>
       <c r="H24">
-        <v>0.0188349336723781</v>
+        <v>0.01525711114557926</v>
       </c>
       <c r="I24">
-        <v>0.03705041007089083</v>
+        <v>0.03005593572252074</v>
       </c>
       <c r="J24">
-        <v>0.8336486754952546</v>
+        <v>0.7337517914230602</v>
       </c>
       <c r="K24">
-        <v>1.412650327379751</v>
+        <v>1.123469543059343</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4491790209341531</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4231338506721372</v>
       </c>
       <c r="N24">
-        <v>0.3572233834044596</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3748079117601009</v>
       </c>
       <c r="Q24">
-        <v>4.937684889103139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.153447031481619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3488745549767884</v>
+        <v>0.2367929401547357</v>
       </c>
       <c r="D25">
-        <v>0.01446309481561059</v>
+        <v>0.01889693830626626</v>
       </c>
       <c r="E25">
-        <v>0.2313053777437943</v>
+        <v>0.1980499859362759</v>
       </c>
       <c r="F25">
-        <v>1.305600179256942</v>
+        <v>1.135724189764602</v>
       </c>
       <c r="G25">
-        <v>1.270977304008511</v>
+        <v>1.074643680532148</v>
       </c>
       <c r="H25">
-        <v>0.0117653172339435</v>
+        <v>0.009616069277486955</v>
       </c>
       <c r="I25">
-        <v>0.02581561506013053</v>
+        <v>0.0214903597186531</v>
       </c>
       <c r="J25">
-        <v>0.7155386056488737</v>
+        <v>0.6585292283480584</v>
       </c>
       <c r="K25">
-        <v>1.194391749421371</v>
+        <v>0.965800459849234</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4188841505125538</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3309733271328099</v>
       </c>
       <c r="N25">
-        <v>0.3025989424065045</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3175188414319052</v>
       </c>
       <c r="Q25">
-        <v>4.143320442464471</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.531178374231786</v>
       </c>
     </row>
   </sheetData>
